--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="106">
   <si>
     <t>Посада</t>
   </si>
@@ -954,6 +954,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,48 +1035,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,22 +1068,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,15 +1098,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1110,15 +1110,27 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1132,18 +1144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,49 +1478,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
@@ -1630,147 +1630,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1821,28 +1821,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="90"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>22</v>
       </c>
-      <c r="Z11" s="122">
+      <c r="Z11" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1891,22 +1891,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="91"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1955,25 +1955,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="91"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="101"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2022,12 +2022,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="92"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="101"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2112,18 +2112,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
       <c r="L18" s="93" t="s">
         <v>102</v>
       </c>
@@ -2165,18 +2165,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2193,6 +2181,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2357,63 +2357,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -2443,94 +2443,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2581,17 +2581,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>20</v>
       </c>
       <c r="Z11" s="162">
@@ -2599,10 +2599,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2651,18 +2651,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="121"/>
+      <c r="Y12" s="100"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2711,20 +2711,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>160</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2773,18 +2773,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="121"/>
+      <c r="Y14" s="100"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -2848,6 +2848,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2861,18 +2873,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3060,147 +3060,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3251,29 +3251,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="119">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="98">
         <v>21</v>
       </c>
-      <c r="Y11" s="119"/>
+      <c r="Y11" s="98"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3322,17 +3322,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3381,23 +3381,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99">
         <v>42</v>
       </c>
-      <c r="Y13" s="120"/>
+      <c r="Y13" s="99"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3446,11 +3446,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3509,10 +3509,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -3576,6 +3576,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3585,20 +3599,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3786,147 +3786,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3977,29 +3977,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="119">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="98">
         <v>21</v>
       </c>
-      <c r="Y11" s="136"/>
+      <c r="Y11" s="139"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4048,17 +4048,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="137"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4107,20 +4107,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="119">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="98">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="137"/>
+      <c r="Y13" s="140"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4169,11 +4169,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="138"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="141"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4232,10 +4232,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -4299,19 +4299,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4322,6 +4309,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4350,12 +4350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4499,149 +4499,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>2</v>
       </c>
       <c r="C11" s="125" t="s">
@@ -4698,26 +4698,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>21</v>
       </c>
-      <c r="Z11" s="122">
+      <c r="Z11" s="101">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="125"/>
       <c r="D12" s="126"/>
       <c r="E12" s="26" t="s">
@@ -4768,16 +4768,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="125"/>
       <c r="D13" s="126"/>
       <c r="E13" s="27">
@@ -4828,18 +4828,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>42</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="101"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="125"/>
       <c r="D14" s="126"/>
       <c r="E14" s="26">
@@ -4890,18 +4890,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="101"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4983,6 +4983,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -4999,15 +5008,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5040,11 +5040,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5158,141 +5158,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="112" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="112" t="s">
+      <c r="U9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5343,27 +5343,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="119" t="s">
+      <c r="T11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="119">
+      <c r="X11" s="98">
         <v>22</v>
       </c>
-      <c r="Y11" s="122">
+      <c r="Y11" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5412,21 +5412,21 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="120"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="99"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="122"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5475,24 +5475,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="120"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="119">
+      <c r="X13" s="98">
         <f>Z12+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="101"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5541,25 +5541,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="121"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113">
-        <v>2</v>
-      </c>
-      <c r="B15" s="114" t="s">
+      <c r="A15" s="107">
+        <v>2</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="109" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5610,20 +5610,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="116">
+      <c r="T15" s="104">
         <v>24</v>
       </c>
-      <c r="U15" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="119" t="s">
+      <c r="U15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="119">
+      <c r="X15" s="98">
         <v>4</v>
       </c>
-      <c r="Y15" s="122">
+      <c r="Y15" s="101">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5632,9 +5632,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="26" t="s">
         <v>91</v>
       </c>
@@ -5683,12 +5683,12 @@
       <c r="S16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="120"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="122"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5698,9 +5698,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5749,24 +5749,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="120"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="99"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="119">
+      <c r="X17" s="98">
         <f>Z15+Z17</f>
         <v>32</v>
       </c>
-      <c r="Y17" s="122"/>
+      <c r="Y17" s="101"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="26" t="s">
         <v>91</v>
       </c>
@@ -5815,21 +5815,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="121"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="122"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="109" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5880,27 +5880,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="116">
+      <c r="T19" s="104">
         <v>24</v>
       </c>
-      <c r="U19" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="119" t="s">
+      <c r="U19" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="119">
+      <c r="X19" s="98">
         <v>22</v>
       </c>
-      <c r="Y19" s="122">
+      <c r="Y19" s="101">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="26" t="s">
         <v>91</v>
       </c>
@@ -5949,21 +5949,21 @@
       <c r="S20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="120"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="99"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="122"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6012,24 +6012,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="120"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="99"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="119">
+      <c r="X21" s="98">
         <f>Z20+Z22</f>
         <v>32</v>
       </c>
-      <c r="Y21" s="122"/>
+      <c r="Y21" s="101"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -6078,25 +6078,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="121"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="122"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="101"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113">
+      <c r="A23" s="107">
         <v>4</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="109" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6147,27 +6147,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="119" t="s">
+      <c r="T23" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="119">
+      <c r="X23" s="98">
         <v>22</v>
       </c>
-      <c r="Y23" s="122">
+      <c r="Y23" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6216,21 +6216,21 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="120"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="99"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="122"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="101"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6279,24 +6279,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="120"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="99"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="119">
+      <c r="X25" s="98">
         <f>Z24+Z26</f>
         <v>176</v>
       </c>
-      <c r="Y25" s="122"/>
+      <c r="Y25" s="101"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6345,19 +6345,19 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="121"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="122"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113">
+      <c r="A27" s="107">
         <v>5</v>
       </c>
       <c r="B27" s="125" t="s">
@@ -6414,20 +6414,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="119" t="s">
+      <c r="T27" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="119">
+      <c r="X27" s="98">
         <v>22</v>
       </c>
-      <c r="Y27" s="122">
+      <c r="Y27" s="101">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6435,7 +6435,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="125"/>
       <c r="C28" s="126"/>
       <c r="D28" s="26">
@@ -6486,15 +6486,15 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="120"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="99"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="122"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="101"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="125"/>
       <c r="C29" s="126"/>
       <c r="D29" s="27">
@@ -6545,17 +6545,17 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="120"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="99"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="119">
+      <c r="X29" s="98">
         <v>32</v>
       </c>
-      <c r="Y29" s="122"/>
+      <c r="Y29" s="101"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="113"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="125"/>
       <c r="C30" s="126"/>
       <c r="D30" s="26">
@@ -6606,21 +6606,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="121"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="100"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="122"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="101"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113">
+      <c r="A31" s="107">
         <v>6</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="109" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6671,27 +6671,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="119" t="s">
+      <c r="T31" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="119">
+      <c r="X31" s="98">
         <v>4</v>
       </c>
-      <c r="Y31" s="122">
+      <c r="Y31" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6740,12 +6740,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="120"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="99"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="122"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="101"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>96</v>
@@ -6756,9 +6756,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6807,20 +6807,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="120"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="99"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="119">
+      <c r="X33" s="98">
         <f>Z32+Z34</f>
         <v>176</v>
       </c>
-      <c r="Y33" s="122"/>
+      <c r="Y33" s="101"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6869,12 +6869,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="121"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="100"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="122"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="101"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6893,10 +6893,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="123"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="33">
         <v>44501</v>
       </c>
@@ -6962,15 +6962,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -6987,49 +7021,15 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7197,63 +7197,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7283,90 +7283,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="127">
+      <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7421,18 +7421,18 @@
       <c r="V11" s="130"/>
       <c r="W11" s="130"/>
       <c r="X11" s="130"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>22</v>
       </c>
-      <c r="Z11" s="133">
+      <c r="Z11" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7485,14 +7485,14 @@
       <c r="V12" s="131"/>
       <c r="W12" s="131"/>
       <c r="X12" s="131"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="134"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="128"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="128"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7545,16 +7545,16 @@
       <c r="V13" s="131"/>
       <c r="W13" s="131"/>
       <c r="X13" s="131"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>176</v>
       </c>
-      <c r="Z13" s="134"/>
+      <c r="Z13" s="128"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="129"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7607,8 +7607,8 @@
       <c r="V14" s="132"/>
       <c r="W14" s="132"/>
       <c r="X14" s="132"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="135"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="129"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -7639,10 +7639,10 @@
       <c r="Z15" s="89"/>
     </row>
     <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="78">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -7706,18 +7706,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X11:X14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7731,6 +7719,18 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X11:X14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7759,12 +7759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7909,147 +7909,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="127">
+      <c r="B11" s="133">
         <v>1</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="136" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8100,19 +8100,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="119">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="98">
         <v>22</v>
       </c>
-      <c r="Y11" s="136">
+      <c r="Y11" s="139">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8121,10 +8121,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8173,17 +8173,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="137"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="144"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8232,20 +8232,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="119">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="98">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="137"/>
+      <c r="Y13" s="140"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="145"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8294,11 +8294,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="138"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="141"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8414,12 +8414,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8430,14 +8432,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8468,11 +8468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8616,145 +8616,145 @@
       <c r="X6" s="82"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
       <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="112" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="112" t="s">
+      <c r="U9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="25">
@@ -8805,27 +8805,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="119" t="s">
+      <c r="T11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="146"/>
-      <c r="X11" s="119">
+      <c r="X11" s="98">
         <v>22</v>
       </c>
-      <c r="Y11" s="122">
+      <c r="Y11" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -8874,21 +8874,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="120"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="99"/>
       <c r="W12" s="147"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="122"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -8937,20 +8937,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="120"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="147"/>
-      <c r="X13" s="119">
+      <c r="X13" s="98">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="101"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -8999,25 +8999,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="121"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="148"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113">
-        <v>2</v>
-      </c>
-      <c r="B15" s="114" t="s">
+      <c r="A15" s="107">
+        <v>2</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="109" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="25">
@@ -9068,28 +9068,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="119" t="s">
+      <c r="T15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="146"/>
-      <c r="X15" s="119">
+      <c r="X15" s="98">
         <f>X17/8</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="122">
+      <c r="Y15" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9138,21 +9138,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="120"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="147"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="122"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9201,20 +9201,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="120"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="99"/>
       <c r="W17" s="147"/>
-      <c r="X17" s="119">
+      <c r="X17" s="98">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="122"/>
+      <c r="Y17" s="101"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9263,25 +9263,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="121"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="148"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="122"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="109" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="25">
@@ -9332,28 +9332,28 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="119" t="s">
+      <c r="T19" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="146"/>
-      <c r="X19" s="119">
+      <c r="X19" s="98">
         <f>X21/4</f>
         <v>22</v>
       </c>
-      <c r="Y19" s="122">
+      <c r="Y19" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9402,21 +9402,21 @@
       <c r="S20" s="26">
         <v>4</v>
       </c>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="120"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="99"/>
       <c r="W20" s="147"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="122"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9465,20 +9465,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="120"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="99"/>
       <c r="W21" s="147"/>
-      <c r="X21" s="119">
+      <c r="X21" s="98">
         <f>Z20+Z22</f>
         <v>88</v>
       </c>
-      <c r="Y21" s="122"/>
+      <c r="Y21" s="101"/>
     </row>
     <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="26">
         <v>4</v>
       </c>
@@ -9527,12 +9527,12 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="121"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="148"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="122"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="101"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>40</v>
@@ -9642,16 +9642,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="V19:V22"/>
@@ -9667,24 +9675,16 @@
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="Y15:Y18"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9712,49 +9712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9864,147 +9864,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10055,20 +10055,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>22</v>
       </c>
-      <c r="Z11" s="122">
+      <c r="Z11" s="101">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10077,10 +10077,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10129,18 +10129,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10189,24 +10189,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>44</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="101"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10255,12 +10255,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="101"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10345,10 +10345,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="149">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -10363,14 +10363,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10386,11 +10383,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10404,7 +10404,7 @@
   <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -10424,11 +10424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10518,142 +10518,142 @@
       <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="A5" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="str">
+      <c r="A6" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="112" t="s">
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="112" t="s">
+      <c r="U7" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="112" t="s">
+      <c r="V7" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="112" t="s">
+      <c r="W7" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="112" t="s">
+      <c r="X7" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="98" t="s">
+      <c r="Y7" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="98"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="110"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="136" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10704,31 +10704,31 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="119">
+      <c r="T9" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="98">
         <v>20</v>
       </c>
-      <c r="Y9" s="122">
+      <c r="Y9" s="101">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="26">
-        <v>8</v>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>13</v>
@@ -10736,20 +10736,20 @@
       <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="26">
-        <v>8</v>
-      </c>
-      <c r="H10" s="26">
-        <v>8</v>
-      </c>
-      <c r="I10" s="26">
-        <v>8</v>
-      </c>
-      <c r="J10" s="26">
-        <v>8</v>
-      </c>
-      <c r="K10" s="26">
-        <v>8</v>
+      <c r="G10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>13</v>
@@ -10757,14 +10757,14 @@
       <c r="M10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="26">
-        <v>8</v>
-      </c>
-      <c r="O10" s="26">
-        <v>8</v>
-      </c>
-      <c r="P10" s="26">
-        <v>7</v>
+      <c r="N10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q10" s="26" t="s">
         <v>13</v>
@@ -10775,21 +10775,21 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="122"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="101"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="144"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10838,20 +10838,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="119">
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="98">
         <f>Z10+Z12</f>
-        <v>159</v>
-      </c>
-      <c r="Y11" s="122"/>
+        <v>88</v>
+      </c>
+      <c r="Y11" s="101"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="145"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -10900,25 +10900,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="122"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113">
-        <v>2</v>
-      </c>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="107">
+        <v>2</v>
+      </c>
+      <c r="B13" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="115" t="str">
+      <c r="C13" s="109" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10970,22 +10970,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="119">
+      <c r="T13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="98">
         <v>20</v>
       </c>
-      <c r="Y13" s="122">
+      <c r="Y13" s="101">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10997,9 +10997,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11048,12 +11048,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>71</v>
@@ -11064,9 +11064,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11115,20 +11115,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="119">
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="98">
         <f>Z14+Z16</f>
         <v>159</v>
       </c>
-      <c r="Y15" s="122"/>
+      <c r="Y15" s="101"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -11177,12 +11177,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="122"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -11193,13 +11193,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="156">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="153" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11250,29 +11250,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="153" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="150">
+      <c r="T17" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="154">
         <v>20</v>
       </c>
-      <c r="Y17" s="122">
+      <c r="Y17" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="156"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="153"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -11321,21 +11321,21 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="117"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="152"/>
-      <c r="Y18" s="122"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="101"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="156"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11384,20 +11384,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="117"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="150">
+      <c r="T19" s="105"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="98">
         <f>Z18+Z20</f>
         <v>79</v>
       </c>
-      <c r="Y19" s="122"/>
+      <c r="Y19" s="101"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="156"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="153"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -11446,25 +11446,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="118"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="152"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="152"/>
-      <c r="Y20" s="122"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="127">
+      <c r="A21" s="133">
         <v>4</v>
       </c>
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="153" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11515,31 +11515,31 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="119">
+      <c r="T21" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="98">
         <v>20</v>
       </c>
-      <c r="Y21" s="122">
+      <c r="Y21" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="128"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="158"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="153"/>
       <c r="D22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>13</v>
@@ -11548,19 +11548,19 @@
         <v>13</v>
       </c>
       <c r="G22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L22" s="26" t="s">
         <v>13</v>
@@ -11569,13 +11569,13 @@
         <v>13</v>
       </c>
       <c r="N22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O22" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P22" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>13</v>
@@ -11586,21 +11586,21 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="122"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="101"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="128"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="158"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11649,58 +11649,58 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="119">
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="98">
         <f>Z22+Z24</f>
-        <v>79</v>
-      </c>
-      <c r="Y23" s="122"/>
+        <v>159</v>
+      </c>
+      <c r="Y23" s="101"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="129"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="158"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="L24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P24" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>13</v>
@@ -11711,25 +11711,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="122"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="101"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="127">
+      <c r="A25" s="133">
         <v>4</v>
       </c>
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="158" t="s">
+      <c r="C25" s="153" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -11780,29 +11780,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="119">
+      <c r="T25" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="98">
         <v>20</v>
       </c>
-      <c r="Y25" s="122">
+      <c r="Y25" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="128"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="158"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="153"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -11851,21 +11851,21 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="122"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="101"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="128"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="158"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="153"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -11914,20 +11914,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="119">
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="98">
         <f>Z26+Z28</f>
         <v>159</v>
       </c>
-      <c r="Y27" s="122"/>
+      <c r="Y27" s="101"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="129"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="158"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
       <c r="D28" s="26" t="s">
         <v>13</v>
       </c>
@@ -11976,12 +11976,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="122"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="101"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -12013,7 +12013,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9">
         <f>SUM(X11+X15+X19+X23)</f>
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Y29" s="35">
         <f>SUM(Y9:Y24)</f>
@@ -12021,10 +12021,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="123" t="s">
+      <c r="A30" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="123"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="97">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -12185,54 +12185,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12249,6 +12201,54 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12282,11 +12282,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12400,141 +12400,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="112" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="112" t="s">
+      <c r="U8" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="112" t="s">
+      <c r="V8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="112" t="s">
+      <c r="W8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="112" t="s">
+      <c r="X8" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="98" t="s">
+      <c r="Y8" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="98"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="110"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113">
+      <c r="A10" s="107">
         <v>1</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="109" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12585,29 +12585,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="122">
+      <c r="T10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="101">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12656,17 +12656,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="122"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="101"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12715,19 +12715,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="122"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="101"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12776,12 +12776,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="122"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="101"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12796,10 +12796,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="123"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="71">
         <v>44013</v>
       </c>
@@ -12865,6 +12865,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12879,16 +12889,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13053,63 +13053,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -13139,94 +13139,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -13277,17 +13277,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="119" t="s">
+      <c r="Y11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="162">
@@ -13295,10 +13295,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13347,18 +13347,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="121"/>
+      <c r="Y12" s="100"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13407,20 +13407,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="119" t="s">
+      <c r="Y13" s="98" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13469,18 +13469,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="121"/>
+      <c r="Y14" s="100"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13544,18 +13544,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13569,6 +13557,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="105">
   <si>
     <t>Посада</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>Крива Оксана Володимирівна</t>
-  </si>
-  <si>
-    <t>О</t>
   </si>
   <si>
     <t>ТзОВ АБР</t>
@@ -954,6 +951,69 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,75 +1032,30 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,22 +1065,25 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1077,27 +1095,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1107,33 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,33 +1141,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,49 +1475,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="A2" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
@@ -1630,147 +1627,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="109" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="115" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1821,28 +1818,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="90"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1891,22 +1888,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="91"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1955,25 +1952,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="91"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="122"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2022,12 +2019,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="92"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2112,20 +2109,20 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103">
+      <c r="C18" s="123"/>
+      <c r="D18" s="124">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
       <c r="L18" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2165,6 +2162,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2181,18 +2190,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2357,63 +2354,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -2443,94 +2440,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2581,17 +2578,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>20</v>
       </c>
       <c r="Z11" s="162">
@@ -2599,10 +2596,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2651,18 +2648,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="121"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2711,20 +2708,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>160</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2773,18 +2770,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -2848,18 +2845,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2873,6 +2858,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3060,147 +3057,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3251,29 +3248,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="119">
         <v>21</v>
       </c>
-      <c r="Y11" s="98"/>
+      <c r="Y11" s="119"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3322,17 +3319,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3381,23 +3378,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99">
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120">
         <v>42</v>
       </c>
-      <c r="Y13" s="99"/>
+      <c r="Y13" s="120"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3446,11 +3443,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3509,10 +3506,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -3576,6 +3573,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -3585,20 +3596,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3786,147 +3783,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3977,29 +3974,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="119">
         <v>21</v>
       </c>
-      <c r="Y11" s="139"/>
+      <c r="Y11" s="136"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4048,17 +4045,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="137"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4107,20 +4104,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="119">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="137"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4169,11 +4166,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="138"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4232,10 +4229,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -4299,6 +4296,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4309,19 +4319,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4350,12 +4347,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4499,149 +4496,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>2</v>
       </c>
       <c r="C11" s="125" t="s">
@@ -4698,26 +4695,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>21</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="122">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="125"/>
       <c r="D12" s="126"/>
       <c r="E12" s="26" t="s">
@@ -4768,16 +4765,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="125"/>
       <c r="D13" s="126"/>
       <c r="E13" s="27">
@@ -4828,18 +4825,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>42</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="122"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="125"/>
       <c r="D14" s="126"/>
       <c r="E14" s="26">
@@ -4890,18 +4887,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4983,15 +4980,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5008,6 +4996,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5020,8 +5017,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -5040,11 +5037,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5158,141 +5155,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
+      <c r="A8" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="115" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5343,44 +5340,44 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
+      <c r="T11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="98">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="101">
+      <c r="X11" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
-      <c r="E12" s="26">
-        <v>8</v>
-      </c>
-      <c r="F12" s="26">
-        <v>8</v>
+      <c r="E12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="26">
         <v>8</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>13</v>
+      <c r="H12" s="26">
+        <v>8</v>
+      </c>
+      <c r="I12" s="26">
+        <v>8</v>
       </c>
       <c r="J12" s="26">
         <v>8</v>
@@ -5388,45 +5385,45 @@
       <c r="K12" s="26">
         <v>8</v>
       </c>
-      <c r="L12" s="26">
-        <v>8</v>
-      </c>
-      <c r="M12" s="26">
-        <v>8</v>
+      <c r="L12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="N12" s="26">
         <v>8</v>
       </c>
-      <c r="O12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>8</v>
-      </c>
-      <c r="R12" s="26">
-        <v>8</v>
-      </c>
-      <c r="S12" s="26">
-        <v>8</v>
-      </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
+      <c r="O12" s="26">
+        <v>8</v>
+      </c>
+      <c r="P12" s="26">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="120"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="122"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5475,35 +5472,35 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="120"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="98">
+      <c r="X13" s="119">
         <f>Z12+Z14</f>
-        <v>176</v>
-      </c>
-      <c r="Y13" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="Y13" s="122"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="26">
-        <v>8</v>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="26">
         <v>8</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>13</v>
+      <c r="F14" s="26">
+        <v>8</v>
+      </c>
+      <c r="G14" s="26">
+        <v>8</v>
       </c>
       <c r="H14" s="26">
         <v>8</v>
@@ -5514,17 +5511,17 @@
       <c r="J14" s="26">
         <v>8</v>
       </c>
-      <c r="K14" s="26">
-        <v>8</v>
+      <c r="K14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="L14" s="26">
         <v>8</v>
       </c>
-      <c r="M14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>13</v>
+      <c r="M14" s="26">
+        <v>8</v>
+      </c>
+      <c r="N14" s="26">
+        <v>8</v>
       </c>
       <c r="O14" s="26">
         <v>8</v>
@@ -5532,34 +5529,34 @@
       <c r="P14" s="26">
         <v>8</v>
       </c>
-      <c r="Q14" s="26">
-        <v>8</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>10</v>
+      <c r="Q14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="113">
+        <v>2</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5610,97 +5607,97 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104">
-        <v>24</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
+      <c r="T15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="98">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="101">
+      <c r="X15" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="122">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
         <f>SUM(D16:S16)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="26" t="s">
-        <v>91</v>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="26">
+        <v>8</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="G16" s="26">
+        <v>8</v>
+      </c>
+      <c r="H16" s="26">
+        <v>8</v>
+      </c>
+      <c r="I16" s="26">
+        <v>8</v>
+      </c>
+      <c r="J16" s="26">
+        <v>8</v>
+      </c>
+      <c r="K16" s="26">
+        <v>8</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="N16" s="26">
+        <v>8</v>
+      </c>
+      <c r="O16" s="26">
+        <v>8</v>
+      </c>
+      <c r="P16" s="26">
+        <v>7</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="R16" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
+        <v>13</v>
+      </c>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA16" s="2">
         <f>Z17+Z15</f>
-        <v>32</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5749,53 +5746,53 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="120"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="98">
+      <c r="X17" s="119">
         <f>Z15+Z17</f>
-        <v>32</v>
-      </c>
-      <c r="Y17" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="Y17" s="122"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8</v>
+      </c>
+      <c r="F18" s="26">
+        <v>8</v>
+      </c>
+      <c r="G18" s="26">
+        <v>8</v>
+      </c>
+      <c r="H18" s="26">
+        <v>8</v>
+      </c>
+      <c r="I18" s="26">
+        <v>8</v>
+      </c>
+      <c r="J18" s="26">
+        <v>8</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="L18" s="26">
+        <v>8</v>
+      </c>
+      <c r="M18" s="26">
+        <v>8</v>
       </c>
       <c r="N18" s="26">
         <v>8</v>
@@ -5806,30 +5803,30 @@
       <c r="P18" s="26">
         <v>8</v>
       </c>
-      <c r="Q18" s="26">
-        <v>8</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>10</v>
+      <c r="Q18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="121"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="122"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="113">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5880,90 +5877,90 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104">
-        <v>24</v>
-      </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
+      <c r="T19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="98">
-        <v>22</v>
-      </c>
-      <c r="Y19" s="101">
+      <c r="X19" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="122">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="26" t="s">
-        <v>91</v>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="26">
+        <v>8</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="26">
+        <v>8</v>
+      </c>
+      <c r="H20" s="26">
+        <v>8</v>
+      </c>
+      <c r="I20" s="26">
+        <v>8</v>
+      </c>
+      <c r="J20" s="26">
+        <v>8</v>
+      </c>
+      <c r="K20" s="26">
+        <v>8</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="N20" s="26">
+        <v>8</v>
+      </c>
+      <c r="O20" s="26">
+        <v>8</v>
+      </c>
+      <c r="P20" s="26">
+        <v>7</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="R20" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
+        <v>13</v>
+      </c>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="120"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6012,56 +6009,56 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="120"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="98">
+      <c r="X21" s="119">
         <f>Z20+Z22</f>
-        <v>32</v>
-      </c>
-      <c r="Y21" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="Y21" s="122"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
-        <v>32</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="26">
+        <v>8</v>
+      </c>
+      <c r="F22" s="26">
+        <v>8</v>
+      </c>
+      <c r="G22" s="26">
+        <v>8</v>
+      </c>
+      <c r="H22" s="26">
+        <v>8</v>
+      </c>
+      <c r="I22" s="26">
+        <v>8</v>
+      </c>
+      <c r="J22" s="26">
+        <v>8</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="L22" s="26">
         <v>8</v>
       </c>
-      <c r="M22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>13</v>
+      <c r="M22" s="26">
+        <v>8</v>
+      </c>
+      <c r="N22" s="26">
+        <v>8</v>
       </c>
       <c r="O22" s="26">
         <v>8</v>
@@ -6069,34 +6066,34 @@
       <c r="P22" s="26">
         <v>8</v>
       </c>
-      <c r="Q22" s="26">
-        <v>8</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>10</v>
+      <c r="Q22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107">
+      <c r="A23" s="113">
         <v>4</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6147,44 +6144,44 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="98" t="s">
+      <c r="T23" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="98">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="101">
+      <c r="X23" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
-      <c r="E24" s="26">
-        <v>8</v>
-      </c>
-      <c r="F24" s="26">
-        <v>8</v>
+      <c r="E24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="G24" s="26">
         <v>8</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>13</v>
+      <c r="H24" s="26">
+        <v>8</v>
+      </c>
+      <c r="I24" s="26">
+        <v>8</v>
       </c>
       <c r="J24" s="26">
         <v>8</v>
@@ -6192,45 +6189,45 @@
       <c r="K24" s="26">
         <v>8</v>
       </c>
-      <c r="L24" s="26">
-        <v>8</v>
-      </c>
-      <c r="M24" s="26">
-        <v>8</v>
+      <c r="L24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="N24" s="26">
         <v>8</v>
       </c>
-      <c r="O24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>8</v>
-      </c>
-      <c r="R24" s="26">
-        <v>8</v>
-      </c>
-      <c r="S24" s="26">
-        <v>8</v>
-      </c>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="99"/>
+      <c r="O24" s="26">
+        <v>8</v>
+      </c>
+      <c r="P24" s="26">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="120"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="122"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6279,35 +6276,35 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="99"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="120"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="98">
+      <c r="X25" s="119">
         <f>Z24+Z26</f>
-        <v>176</v>
-      </c>
-      <c r="Y25" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="Y25" s="122"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="26">
-        <v>8</v>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="E26" s="26">
         <v>8</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>13</v>
+      <c r="F26" s="26">
+        <v>8</v>
+      </c>
+      <c r="G26" s="26">
+        <v>8</v>
       </c>
       <c r="H26" s="26">
         <v>8</v>
@@ -6318,17 +6315,17 @@
       <c r="J26" s="26">
         <v>8</v>
       </c>
-      <c r="K26" s="26">
-        <v>8</v>
+      <c r="K26" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="L26" s="26">
         <v>8</v>
       </c>
-      <c r="M26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>13</v>
+      <c r="M26" s="26">
+        <v>8</v>
+      </c>
+      <c r="N26" s="26">
+        <v>8</v>
       </c>
       <c r="O26" s="26">
         <v>8</v>
@@ -6336,28 +6333,28 @@
       <c r="P26" s="26">
         <v>8</v>
       </c>
-      <c r="Q26" s="26">
-        <v>8</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>10</v>
+      <c r="Q26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="100"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="121"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="122"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="107">
+      <c r="A27" s="113">
         <v>5</v>
       </c>
       <c r="B27" s="125" t="s">
@@ -6414,20 +6411,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="98" t="s">
+      <c r="T27" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="98">
-        <v>22</v>
-      </c>
-      <c r="Y27" s="101">
+      <c r="X27" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="122">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6435,26 +6432,26 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="125"/>
       <c r="C28" s="126"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
-      <c r="E28" s="26">
-        <v>8</v>
-      </c>
-      <c r="F28" s="26">
-        <v>8</v>
+      <c r="E28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="G28" s="26">
         <v>8</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>13</v>
+      <c r="H28" s="26">
+        <v>8</v>
+      </c>
+      <c r="I28" s="26">
+        <v>8</v>
       </c>
       <c r="J28" s="26">
         <v>8</v>
@@ -6462,39 +6459,39 @@
       <c r="K28" s="26">
         <v>8</v>
       </c>
-      <c r="L28" s="26">
-        <v>8</v>
-      </c>
-      <c r="M28" s="26">
-        <v>8</v>
+      <c r="L28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="N28" s="26">
         <v>8</v>
       </c>
-      <c r="O28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="26">
-        <v>8</v>
-      </c>
-      <c r="R28" s="26">
-        <v>8</v>
-      </c>
-      <c r="S28" s="26">
-        <v>8</v>
-      </c>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="99"/>
+      <c r="O28" s="26">
+        <v>8</v>
+      </c>
+      <c r="P28" s="26">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="120"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="101"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="122"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="125"/>
       <c r="C29" s="126"/>
       <c r="D29" s="27">
@@ -6545,30 +6542,30 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="99"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="120"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="98">
+      <c r="X29" s="119">
         <v>32</v>
       </c>
-      <c r="Y29" s="101"/>
+      <c r="Y29" s="122"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="125"/>
       <c r="C30" s="126"/>
-      <c r="D30" s="26">
-        <v>8</v>
+      <c r="D30" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="E30" s="26">
         <v>8</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>13</v>
+      <c r="F30" s="26">
+        <v>8</v>
+      </c>
+      <c r="G30" s="26">
+        <v>8</v>
       </c>
       <c r="H30" s="26">
         <v>8</v>
@@ -6579,17 +6576,17 @@
       <c r="J30" s="26">
         <v>8</v>
       </c>
-      <c r="K30" s="26">
-        <v>8</v>
+      <c r="K30" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="L30" s="26">
         <v>8</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>13</v>
+      <c r="M30" s="26">
+        <v>8</v>
+      </c>
+      <c r="N30" s="26">
+        <v>8</v>
       </c>
       <c r="O30" s="26">
         <v>8</v>
@@ -6597,30 +6594,30 @@
       <c r="P30" s="26">
         <v>8</v>
       </c>
-      <c r="Q30" s="26">
-        <v>8</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>10</v>
+      <c r="Q30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="100"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="121"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="101"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="122"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="107">
+      <c r="A31" s="113">
         <v>6</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6671,44 +6668,44 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="98" t="s">
+      <c r="T31" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="98">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="101">
+      <c r="X31" s="119">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
-      <c r="E32" s="26">
-        <v>8</v>
-      </c>
-      <c r="F32" s="26">
-        <v>8</v>
+      <c r="E32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="G32" s="26">
         <v>8</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>13</v>
+      <c r="H32" s="26">
+        <v>8</v>
+      </c>
+      <c r="I32" s="26">
+        <v>8</v>
       </c>
       <c r="J32" s="26">
         <v>8</v>
@@ -6716,49 +6713,49 @@
       <c r="K32" s="26">
         <v>8</v>
       </c>
-      <c r="L32" s="26">
-        <v>8</v>
-      </c>
-      <c r="M32" s="26">
-        <v>8</v>
+      <c r="L32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="N32" s="26">
         <v>8</v>
       </c>
-      <c r="O32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="26">
-        <v>8</v>
-      </c>
-      <c r="R32" s="26">
-        <v>8</v>
-      </c>
-      <c r="S32" s="26">
-        <v>8</v>
-      </c>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="99"/>
+      <c r="O32" s="26">
+        <v>8</v>
+      </c>
+      <c r="P32" s="26">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="120"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="101"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="122"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AA32" s="2">
         <f>Z32+Z34</f>
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6807,31 +6804,31 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="99"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="120"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="98">
+      <c r="X33" s="119">
         <f>Z32+Z34</f>
-        <v>176</v>
-      </c>
-      <c r="Y33" s="101"/>
+        <v>159</v>
+      </c>
+      <c r="Y33" s="122"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="26">
-        <v>8</v>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="26">
         <v>8</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>13</v>
+      <c r="F34" s="26">
+        <v>8</v>
+      </c>
+      <c r="G34" s="26">
+        <v>8</v>
       </c>
       <c r="H34" s="26">
         <v>8</v>
@@ -6842,17 +6839,17 @@
       <c r="J34" s="26">
         <v>8</v>
       </c>
-      <c r="K34" s="26">
-        <v>8</v>
+      <c r="K34" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="L34" s="26">
         <v>8</v>
       </c>
-      <c r="M34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>13</v>
+      <c r="M34" s="26">
+        <v>8</v>
+      </c>
+      <c r="N34" s="26">
+        <v>8</v>
       </c>
       <c r="O34" s="26">
         <v>8</v>
@@ -6860,24 +6857,24 @@
       <c r="P34" s="26">
         <v>8</v>
       </c>
-      <c r="Q34" s="26">
-        <v>8</v>
-      </c>
-      <c r="R34" s="29" t="s">
-        <v>10</v>
+      <c r="Q34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="100"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="121"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="101"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="122"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6885,7 +6882,7 @@
       <c r="C35" s="33"/>
       <c r="X35" s="74">
         <f>X33+X29+X25+X21+X17+X13</f>
-        <v>624</v>
+        <v>827</v>
       </c>
       <c r="Y35" s="34">
         <f>Y11+Y15+Y19+Y23+Y27+Y31</f>
@@ -6893,10 +6890,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="33">
         <v>44501</v>
       </c>
@@ -6962,33 +6959,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -7005,31 +7000,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7197,63 +7194,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7283,90 +7280,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133">
+      <c r="A11" s="127">
         <v>1</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7421,18 +7418,18 @@
       <c r="V11" s="130"/>
       <c r="W11" s="130"/>
       <c r="X11" s="130"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>22</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="133">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7485,14 +7482,14 @@
       <c r="V12" s="131"/>
       <c r="W12" s="131"/>
       <c r="X12" s="131"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="128"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="134"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7545,16 +7542,16 @@
       <c r="V13" s="131"/>
       <c r="W13" s="131"/>
       <c r="X13" s="131"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>176</v>
       </c>
-      <c r="Z13" s="128"/>
+      <c r="Z13" s="134"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="135"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7607,8 +7604,8 @@
       <c r="V14" s="132"/>
       <c r="W14" s="132"/>
       <c r="X14" s="132"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="129"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="135"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -7639,10 +7636,10 @@
       <c r="Z15" s="89"/>
     </row>
     <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="78">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -7706,6 +7703,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X11:X14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7719,18 +7728,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X11:X14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7759,12 +7756,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7909,147 +7906,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="127">
         <v>1</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="143" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8100,19 +8097,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="119">
         <v>22</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="136">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8121,10 +8118,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="137"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8173,17 +8170,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="137"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="137"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8232,20 +8229,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="119">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="137"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="138"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8294,11 +8291,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="138"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8332,10 +8329,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8414,14 +8411,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8432,12 +8427,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8468,11 +8465,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8480,7 +8477,7 @@
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -8509,7 +8506,7 @@
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -8616,146 +8613,146 @@
       <c r="X6" s="82"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
       <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -8805,27 +8802,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
+      <c r="T11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="146"/>
-      <c r="X11" s="98">
+      <c r="X11" s="119">
         <v>22</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -8874,21 +8871,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="120"/>
       <c r="W12" s="147"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="122"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -8937,20 +8934,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="120"/>
       <c r="W13" s="147"/>
-      <c r="X13" s="98">
+      <c r="X13" s="119">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="101"/>
+      <c r="Y13" s="122"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -8999,26 +8996,26 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="148"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="113">
+        <v>2</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="115" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="109" t="s">
-        <v>97</v>
       </c>
       <c r="D15" s="25">
         <v>1</v>
@@ -9068,28 +9065,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
+      <c r="T15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="146"/>
-      <c r="X15" s="98">
+      <c r="X15" s="119">
         <f>X17/8</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9138,21 +9135,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="147"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9201,20 +9198,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="120"/>
       <c r="W17" s="147"/>
-      <c r="X17" s="98">
+      <c r="X17" s="119">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="122"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9263,26 +9260,26 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="121"/>
       <c r="W18" s="148"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="122"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="113">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="109" t="s">
+      <c r="B19" s="114" t="s">
         <v>99</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="25">
         <v>1</v>
@@ -9332,28 +9329,28 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
+      <c r="T19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="146"/>
-      <c r="X19" s="98">
+      <c r="X19" s="119">
         <f>X21/4</f>
         <v>22</v>
       </c>
-      <c r="Y19" s="101">
+      <c r="Y19" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9402,21 +9399,21 @@
       <c r="S20" s="26">
         <v>4</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="120"/>
       <c r="W20" s="147"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9465,20 +9462,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="120"/>
       <c r="W21" s="147"/>
-      <c r="X21" s="98">
+      <c r="X21" s="119">
         <f>Z20+Z22</f>
         <v>88</v>
       </c>
-      <c r="Y21" s="101"/>
+      <c r="Y21" s="122"/>
     </row>
     <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="26">
         <v>4</v>
       </c>
@@ -9527,12 +9524,12 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="148"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>40</v>
@@ -9554,7 +9551,7 @@
       <c r="I24" s="79"/>
       <c r="J24" s="79"/>
       <c r="K24" s="79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L24" s="79"/>
       <c r="M24" s="79"/>
@@ -9642,24 +9639,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="V19:V22"/>
@@ -9675,16 +9664,24 @@
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="Y15:Y18"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9712,49 +9709,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9864,147 +9861,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10055,20 +10052,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="122">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10077,10 +10074,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10129,18 +10126,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10189,24 +10186,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>44</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="122"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10255,12 +10252,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10345,10 +10342,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="149">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -10363,11 +10360,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10383,14 +10383,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10403,8 +10400,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -10424,11 +10421,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10518,142 +10515,142 @@
       <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="A5" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="124" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="124" t="s">
+      <c r="U7" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="124" t="s">
+      <c r="V7" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="124" t="s">
+      <c r="W7" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="124" t="s">
+      <c r="X7" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="110" t="s">
+      <c r="Y7" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="110"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="98"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107">
+      <c r="A9" s="113">
         <v>1</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="143" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10704,29 +10701,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="98">
+      <c r="T9" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="119">
         <v>20</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="122">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="137"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="26" t="s">
         <v>88</v>
       </c>
@@ -10775,21 +10772,21 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="101"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="122"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10838,20 +10835,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="98">
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="119">
         <f>Z10+Z12</f>
         <v>88</v>
       </c>
-      <c r="Y11" s="101"/>
+      <c r="Y11" s="122"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -10900,25 +10897,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="122"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107">
-        <v>2</v>
-      </c>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="113">
+        <v>2</v>
+      </c>
+      <c r="B13" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="109" t="str">
+      <c r="C13" s="115" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10970,22 +10967,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="98">
+      <c r="T13" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="119">
         <v>20</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="122">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10997,9 +10994,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11048,12 +11045,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>71</v>
@@ -11064,9 +11061,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11115,20 +11112,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="98">
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="119">
         <f>Z14+Z16</f>
         <v>159</v>
       </c>
-      <c r="Y15" s="101"/>
+      <c r="Y15" s="122"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -11177,12 +11174,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -11193,13 +11190,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160">
+      <c r="A17" s="156">
         <v>3</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="158" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11250,29 +11247,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="157" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="154">
+      <c r="T17" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="150">
         <v>20</v>
       </c>
-      <c r="Y17" s="101">
+      <c r="Y17" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -11321,21 +11318,21 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="105"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="101"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="122"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="153"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11384,20 +11381,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="98">
+      <c r="T19" s="117"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="119">
         <f>Z18+Z20</f>
         <v>79</v>
       </c>
-      <c r="Y19" s="101"/>
+      <c r="Y19" s="122"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="153"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -11446,25 +11443,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133">
+      <c r="A21" s="127">
         <v>4</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="158" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11515,29 +11512,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="98">
+      <c r="T21" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="119">
         <v>20</v>
       </c>
-      <c r="Y21" s="101">
+      <c r="Y21" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="134"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="153"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11586,21 +11583,21 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="101"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="134"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="153"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11649,20 +11646,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="98">
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="119">
         <f>Z22+Z24</f>
         <v>159</v>
       </c>
-      <c r="Y23" s="101"/>
+      <c r="Y23" s="122"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="135"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
@@ -11711,25 +11708,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="122"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="133">
+      <c r="A25" s="127">
         <v>4</v>
       </c>
-      <c r="B25" s="150" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="153" t="s">
+      <c r="B25" s="159" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="158" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -11780,29 +11777,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="98">
+      <c r="T25" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="119">
         <v>20</v>
       </c>
-      <c r="Y25" s="101">
+      <c r="Y25" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="134"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="153"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -11851,21 +11848,21 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="101"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="122"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="134"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="153"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -11914,20 +11911,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="98">
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="119">
         <f>Z26+Z28</f>
         <v>159</v>
       </c>
-      <c r="Y27" s="101"/>
+      <c r="Y27" s="122"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="135"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="26" t="s">
         <v>13</v>
       </c>
@@ -11976,12 +11973,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="101"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="122"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -12021,10 +12018,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="102"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="97">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -12185,6 +12182,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12201,54 +12246,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12282,11 +12279,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12400,141 +12397,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="124" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="124" t="s">
+      <c r="U8" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="124" t="s">
+      <c r="V8" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="124" t="s">
+      <c r="W8" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="124" t="s">
+      <c r="X8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="110" t="s">
+      <c r="Y8" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="110"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="98"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107">
+      <c r="A10" s="113">
         <v>1</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="115" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12585,29 +12582,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="101">
+      <c r="T10" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="122">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12656,17 +12653,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="122"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12715,19 +12712,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="122"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12776,12 +12773,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="101"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="122"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12796,10 +12793,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="71">
         <v>44013</v>
       </c>
@@ -12865,16 +12862,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12889,6 +12876,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13053,63 +13050,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -13139,94 +13136,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -13277,17 +13274,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="98" t="s">
+      <c r="Y11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="162">
@@ -13295,10 +13292,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13347,18 +13344,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="121"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13407,20 +13404,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="98" t="s">
+      <c r="Y13" s="119" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13469,18 +13466,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13544,6 +13541,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13557,18 +13566,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="105">
   <si>
     <t>Посада</t>
   </si>
@@ -662,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -891,221 +891,251 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1114,33 +1144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1458,7 +1461,7 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:T14"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1475,66 +1478,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
       <c r="P3" s="15" t="s">
         <v>40</v>
       </c>
@@ -1543,231 +1546,231 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
       <c r="P4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="Q4" s="16"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
       <c r="P5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
       <c r="P6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="Q6" s="16"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="104" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="99"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1818,28 +1821,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="98">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="120">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="123">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R12" s="26" t="s">
         <v>13</v>
@@ -1888,22 +1891,22 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="123"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
-        <v>35</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1952,25 +1955,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="98">
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="120">
         <f>AB13</f>
-        <v>79</v>
-      </c>
-      <c r="Z13" s="101"/>
+        <v>79.5</v>
+      </c>
+      <c r="Z13" s="123"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
-        <v>79</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -2019,12 +2022,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="123"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>44</v>
@@ -2108,20 +2111,20 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+    <row r="18" spans="1:24" s="92" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103">
+      <c r="C18" s="124"/>
+      <c r="D18" s="125">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="L18" s="93" t="s">
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="L18" s="92" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2162,6 +2165,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2178,18 +2193,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2354,63 +2357,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -2440,94 +2443,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="99"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="114">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2578,28 +2581,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="98">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="120">
         <v>20</v>
       </c>
-      <c r="Z11" s="162">
+      <c r="Z11" s="163">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2648,18 +2651,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="162"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="163"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2708,20 +2711,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="98">
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="120">
         <v>160</v>
       </c>
-      <c r="Z13" s="162"/>
+      <c r="Z13" s="163"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2770,18 +2773,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="162"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="163"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -2845,18 +2848,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2870,6 +2861,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3057,147 +3060,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="99"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="114">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3248,29 +3251,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="120">
         <v>21</v>
       </c>
-      <c r="Y11" s="98"/>
+      <c r="Y11" s="120"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3319,17 +3322,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3378,23 +3381,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99">
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121">
         <v>42</v>
       </c>
-      <c r="Y13" s="99"/>
+      <c r="Y13" s="121"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3443,11 +3446,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3506,10 +3509,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -3573,6 +3576,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -3582,20 +3599,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3783,147 +3786,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="99"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="114">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3974,29 +3977,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="120">
         <v>21</v>
       </c>
-      <c r="Y11" s="139"/>
+      <c r="Y11" s="137"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4045,17 +4048,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="138"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4104,20 +4107,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="120">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="138"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4166,11 +4169,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="139"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4229,10 +4232,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -4296,6 +4299,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4306,19 +4322,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4347,12 +4350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4496,155 +4499,155 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="104" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="99"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
-        <v>2</v>
-      </c>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="114">
+        <v>2</v>
+      </c>
+      <c r="C11" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="127" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="25">
@@ -4695,28 +4698,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="120">
         <v>21</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="123">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4765,18 +4768,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="123"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4825,20 +4828,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="120">
         <v>42</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="123"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4887,18 +4890,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="123"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4980,15 +4983,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5005,6 +4999,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5037,11 +5040,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5155,141 +5158,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="99"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="116" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5340,27 +5343,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
+      <c r="T11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="98">
+      <c r="X11" s="120">
         <v>20</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="123">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5409,21 +5412,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="121"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="123"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5472,24 +5475,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="121"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="98">
+      <c r="X13" s="120">
         <f>Z12+Z14</f>
         <v>159</v>
       </c>
-      <c r="Y13" s="101"/>
+      <c r="Y13" s="123"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -5538,25 +5541,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="122"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="123"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="114">
+        <v>2</v>
+      </c>
+      <c r="B15" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="116" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5607,20 +5610,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
+      <c r="T15" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="120" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="98">
+      <c r="X15" s="120">
         <v>20</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="123">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5629,9 +5632,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5680,12 +5683,12 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="121"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="123"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5695,9 +5698,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5746,24 +5749,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="121"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="98">
+      <c r="X17" s="120">
         <f>Z15+Z17</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="123"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -5812,21 +5815,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="122"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="123"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="114">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="116" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5877,27 +5880,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
+      <c r="T19" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="120" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="98">
+      <c r="X19" s="120">
         <v>20</v>
       </c>
-      <c r="Y19" s="101">
+      <c r="Y19" s="123">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5946,21 +5949,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="121"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="123"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6009,24 +6012,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="121"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="98">
+      <c r="X21" s="120">
         <f>Z20+Z22</f>
         <v>159</v>
       </c>
-      <c r="Y21" s="101"/>
+      <c r="Y21" s="123"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
@@ -6075,25 +6078,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="122"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="123"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107">
+      <c r="A23" s="114">
         <v>4</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="116" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6144,27 +6147,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="98" t="s">
+      <c r="T23" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="120" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="98">
+      <c r="X23" s="120">
         <v>20</v>
       </c>
-      <c r="Y23" s="101">
+      <c r="Y23" s="123">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6213,21 +6216,21 @@
       <c r="S24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="99"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="121"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="123"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6276,24 +6279,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="99"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="121"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="98">
+      <c r="X25" s="120">
         <f>Z24+Z26</f>
         <v>159</v>
       </c>
-      <c r="Y25" s="101"/>
+      <c r="Y25" s="123"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
@@ -6342,25 +6345,25 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="100"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="122"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="123"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="107">
+      <c r="A27" s="114">
         <v>5</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="127" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25">
@@ -6411,20 +6414,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="98" t="s">
+      <c r="T27" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="120" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="98">
+      <c r="X27" s="120">
         <v>20</v>
       </c>
-      <c r="Y27" s="101">
+      <c r="Y27" s="123">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6432,9 +6435,9 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -6483,17 +6486,17 @@
       <c r="S28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="99"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="121"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="101"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="123"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="27">
         <v>17</v>
       </c>
@@ -6542,19 +6545,19 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="99"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="121"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="98">
+      <c r="X29" s="120">
         <v>32</v>
       </c>
-      <c r="Y29" s="101"/>
+      <c r="Y29" s="123"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="26" t="s">
         <v>13</v>
       </c>
@@ -6603,21 +6606,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="100"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="122"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="101"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="123"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="107">
+      <c r="A31" s="114">
         <v>6</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="116" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6668,27 +6671,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="98" t="s">
+      <c r="T31" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="120" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="98">
+      <c r="X31" s="120">
         <v>20</v>
       </c>
-      <c r="Y31" s="101">
+      <c r="Y31" s="123">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6737,12 +6740,12 @@
       <c r="S32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="99"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="121"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="101"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="123"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>71</v>
@@ -6753,9 +6756,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6804,20 +6807,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="99"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="121"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="98">
+      <c r="X33" s="120">
         <f>Z32+Z34</f>
         <v>159</v>
       </c>
-      <c r="Y33" s="101"/>
+      <c r="Y33" s="123"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="26" t="s">
         <v>13</v>
       </c>
@@ -6866,12 +6869,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="100"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="122"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="101"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="123"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>88</v>
@@ -6890,10 +6893,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="33">
         <v>44501</v>
       </c>
@@ -6959,33 +6962,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -7002,31 +7003,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7038,10 +7041,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:T14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -7194,63 +7197,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7280,90 +7283,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="99"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133">
+      <c r="A11" s="128">
         <v>1</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7414,22 +7417,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="98">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="127">
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="120">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="134">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7478,18 +7481,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="128"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="135"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7538,20 +7541,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="98">
-        <v>176</v>
-      </c>
-      <c r="Z13" s="128"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="120">
+        <v>159</v>
+      </c>
+      <c r="Z13" s="135"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="135"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -7600,109 +7603,384 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="129"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="136"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="89"/>
-    </row>
-    <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="A15" s="128">
+        <v>1</v>
+      </c>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25">
+        <v>3</v>
+      </c>
+      <c r="H15" s="25">
+        <v>4</v>
+      </c>
+      <c r="I15" s="25">
+        <v>5</v>
+      </c>
+      <c r="J15" s="25">
+        <v>6</v>
+      </c>
+      <c r="K15" s="25">
+        <v>7</v>
+      </c>
+      <c r="L15" s="25">
+        <v>8</v>
+      </c>
+      <c r="M15" s="25">
+        <v>9</v>
+      </c>
+      <c r="N15" s="25">
+        <v>10</v>
+      </c>
+      <c r="O15" s="25">
+        <v>11</v>
+      </c>
+      <c r="P15" s="25">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="78">
+      <c r="Q15" s="25">
+        <v>13</v>
+      </c>
+      <c r="R15" s="25">
+        <v>14</v>
+      </c>
+      <c r="S15" s="25">
+        <v>15</v>
+      </c>
+      <c r="T15" s="25">
+        <v>16</v>
+      </c>
+      <c r="U15" s="131"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="131"/>
+      <c r="X15" s="131"/>
+      <c r="Y15" s="120">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="134">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="129"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="26">
+        <v>4</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="26">
+        <v>4</v>
+      </c>
+      <c r="I16" s="26">
+        <v>4</v>
+      </c>
+      <c r="J16" s="26">
+        <v>4</v>
+      </c>
+      <c r="K16" s="26">
+        <v>4</v>
+      </c>
+      <c r="L16" s="26">
+        <v>4</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="26">
+        <v>4</v>
+      </c>
+      <c r="P16" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="135"/>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="129"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="27">
+        <v>17</v>
+      </c>
+      <c r="F17" s="27">
+        <v>18</v>
+      </c>
+      <c r="G17" s="27">
+        <v>19</v>
+      </c>
+      <c r="H17" s="27">
+        <v>20</v>
+      </c>
+      <c r="I17" s="27">
+        <v>21</v>
+      </c>
+      <c r="J17" s="27">
+        <v>22</v>
+      </c>
+      <c r="K17" s="27">
+        <v>23</v>
+      </c>
+      <c r="L17" s="27">
+        <v>24</v>
+      </c>
+      <c r="M17" s="27">
+        <v>25</v>
+      </c>
+      <c r="N17" s="27">
+        <v>26</v>
+      </c>
+      <c r="O17" s="27">
+        <v>27</v>
+      </c>
+      <c r="P17" s="27">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>29</v>
+      </c>
+      <c r="R17" s="28">
+        <v>30</v>
+      </c>
+      <c r="S17" s="28">
+        <v>31</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="120">
+        <v>79.5</v>
+      </c>
+      <c r="Z17" s="135"/>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="130"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="26">
+        <v>4</v>
+      </c>
+      <c r="G18" s="26">
+        <v>4</v>
+      </c>
+      <c r="H18" s="26">
+        <v>4</v>
+      </c>
+      <c r="I18" s="26">
+        <v>4</v>
+      </c>
+      <c r="J18" s="26">
+        <v>4</v>
+      </c>
+      <c r="K18" s="26">
+        <v>4</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="26">
+        <v>4</v>
+      </c>
+      <c r="N18" s="26">
+        <v>4</v>
+      </c>
+      <c r="O18" s="26">
+        <v>4</v>
+      </c>
+      <c r="P18" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>4</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="136"/>
+    </row>
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="88"/>
+    </row>
+    <row r="20" spans="1:26" s="97" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="124"/>
+      <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L20" s="97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D18" s="51" t="s">
+    <row r="22" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D22" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D19" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D21" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D22" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D23" s="51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D24" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+    </row>
+    <row r="25" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D25" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D26" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+    </row>
+    <row r="27" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D27" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D28" s="51" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="36">
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X11:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X18"/>
+    <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7716,18 +7994,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X11:X14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7756,12 +8022,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7906,147 +8172,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="99"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="128">
         <v>1</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="144" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8097,19 +8363,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="120">
         <v>22</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="137">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8118,10 +8384,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="137"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8170,17 +8436,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="138"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="137"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8229,20 +8495,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="120">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="138"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="138"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="146"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8291,11 +8557,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="139"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8329,10 +8595,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8411,14 +8677,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8429,12 +8693,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8447,8 +8713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8465,293 +8731,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="16"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15" t="s">
         <v>42</v>
       </c>
       <c r="O3" s="16"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15" t="s">
         <v>43</v>
       </c>
       <c r="O4" s="16"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="80"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="104" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="99"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="116" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -8802,27 +9068,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="146"/>
-      <c r="X11" s="98">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="101">
+      <c r="T11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="147"/>
+      <c r="X11" s="120">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="123">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -8860,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="26" t="s">
         <v>13</v>
@@ -8871,21 +9137,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="123"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -8934,20 +9200,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="98">
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="120">
         <f>Z12+Z14</f>
-        <v>39</v>
-      </c>
-      <c r="Y13" s="101"/>
+        <v>40</v>
+      </c>
+      <c r="Y13" s="123"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -8996,25 +9262,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="123"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="114">
+        <v>2</v>
+      </c>
+      <c r="B15" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="116" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9065,28 +9331,27 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="146"/>
-      <c r="X15" s="98">
-        <f>X17/8</f>
-        <v>19.875</v>
-      </c>
-      <c r="Y15" s="101">
+      <c r="T15" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="147"/>
+      <c r="X15" s="120">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="123">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9135,21 +9400,21 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="123"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9198,20 +9463,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="98">
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="120">
         <f>Z16+Z18</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="123"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -9260,25 +9525,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="123"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="114">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="116" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="25">
@@ -9329,28 +9594,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" s="146"/>
-      <c r="X19" s="98">
-        <f>X21/4</f>
-        <v>19.75</v>
-      </c>
-      <c r="Y19" s="101">
+      <c r="T19" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="147"/>
+      <c r="X19" s="120">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="123">
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9388,7 +9652,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>13</v>
@@ -9399,21 +9663,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="123"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
-        <v>35</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9462,20 +9726,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="98">
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="120">
         <f>Z20+Z22</f>
-        <v>79</v>
-      </c>
-      <c r="Y21" s="101"/>
+        <v>79.5</v>
+      </c>
+      <c r="Y21" s="123"/>
     </row>
     <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
@@ -9524,71 +9788,71 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="123"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="82">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79" t="s">
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
     </row>
     <row r="25" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="81"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
     </row>
     <row r="26" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="51" t="s">
@@ -9621,7 +9885,7 @@
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
-      <c r="P29" s="84"/>
+      <c r="P29" s="83"/>
     </row>
     <row r="30" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="51" t="s">
@@ -9630,7 +9894,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
-      <c r="P30" s="85"/>
+      <c r="P30" s="84"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C31" s="51" t="s">
@@ -9639,24 +9903,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="V19:V22"/>
@@ -9672,16 +9928,24 @@
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="Y15:Y18"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9693,7 +9957,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -9709,49 +9973,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9861,147 +10125,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="104" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="99"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10052,20 +10316,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="120">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="123">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10074,10 +10338,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10126,18 +10390,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="123"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10186,24 +10450,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="120">
         <v>44</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="123"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -10252,12 +10516,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="123"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -10342,29 +10606,32 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="149">
+      <c r="C18" s="124"/>
+      <c r="D18" s="150">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
       <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10380,14 +10647,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10400,8 +10664,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -10421,236 +10685,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
       <c r="Q2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="R2" s="16"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
       <c r="Q3" s="15" t="s">
         <v>42</v>
       </c>
       <c r="R3" s="16"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="15" t="s">
         <v>43</v>
       </c>
       <c r="R4" s="16"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="A5" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="124" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="124" t="s">
+      <c r="U7" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="124" t="s">
+      <c r="V7" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="124" t="s">
+      <c r="W7" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="124" t="s">
+      <c r="X7" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="110" t="s">
+      <c r="Y7" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="110"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="99"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107">
+      <c r="A9" s="114">
         <v>1</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="144" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10701,29 +10965,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="98">
+      <c r="T9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="120">
         <v>20</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="123">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="137"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="26" t="s">
         <v>88</v>
       </c>
@@ -10772,21 +11036,21 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="101"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="123"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10835,20 +11099,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="98">
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="120">
         <f>Z10+Z12</f>
         <v>88</v>
       </c>
-      <c r="Y11" s="101"/>
+      <c r="Y11" s="123"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -10897,25 +11161,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="123"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107">
-        <v>2</v>
-      </c>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="114">
+        <v>2</v>
+      </c>
+      <c r="B13" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="109" t="str">
+      <c r="C13" s="116" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10967,22 +11231,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="98">
+      <c r="T13" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="120">
         <v>20</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="123">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10994,9 +11258,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11045,12 +11309,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="123"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>71</v>
@@ -11061,9 +11325,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11112,20 +11376,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="98">
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="120">
         <f>Z14+Z16</f>
         <v>159</v>
       </c>
-      <c r="Y15" s="101"/>
+      <c r="Y15" s="123"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -11174,12 +11438,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="123"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -11190,13 +11454,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160">
+      <c r="A17" s="157">
         <v>3</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="159" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11247,29 +11511,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="157" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="154">
+      <c r="T17" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="151">
         <v>20</v>
       </c>
-      <c r="Y17" s="101">
+      <c r="Y17" s="123">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -11307,7 +11571,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" s="26" t="s">
         <v>13</v>
@@ -11318,21 +11582,21 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="105"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="101"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="123"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
-        <v>35</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="153"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11381,20 +11645,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="98">
+      <c r="T19" s="118"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="120">
         <f>Z18+Z20</f>
-        <v>79</v>
-      </c>
-      <c r="Y19" s="101"/>
+        <v>79.5</v>
+      </c>
+      <c r="Y19" s="123"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="153"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -11443,25 +11707,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="123"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133">
+      <c r="A21" s="128">
         <v>4</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="159" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11512,29 +11776,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="98">
+      <c r="T21" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="120">
         <v>20</v>
       </c>
-      <c r="Y21" s="101">
+      <c r="Y21" s="123">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="134"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="153"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="159"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11583,21 +11847,21 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="101"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="123"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="134"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="153"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="159"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11646,20 +11910,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="98">
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="120">
         <f>Z22+Z24</f>
         <v>159</v>
       </c>
-      <c r="Y23" s="101"/>
+      <c r="Y23" s="123"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="135"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="159"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
@@ -11708,25 +11972,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="123"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="133">
+      <c r="A25" s="128">
         <v>4</v>
       </c>
-      <c r="B25" s="150" t="s">
+      <c r="B25" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="159" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -11777,29 +12041,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="98">
+      <c r="T25" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="120">
         <v>20</v>
       </c>
-      <c r="Y25" s="101">
+      <c r="Y25" s="123">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="134"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="153"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="159"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -11848,21 +12112,21 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="101"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="123"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="134"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="153"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="159"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -11911,20 +12175,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="98">
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="120">
         <f>Z26+Z28</f>
         <v>159</v>
       </c>
-      <c r="Y27" s="101"/>
+      <c r="Y27" s="123"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="135"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="159"/>
       <c r="D28" s="26" t="s">
         <v>13</v>
       </c>
@@ -11973,12 +12237,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="101"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="123"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -12010,7 +12274,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9">
         <f>SUM(X11+X15+X19+X23)</f>
-        <v>485</v>
+        <v>485.5</v>
       </c>
       <c r="Y29" s="35">
         <f>SUM(Y9:Y24)</f>
@@ -12018,43 +12282,43 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="97">
+      <c r="B30" s="124"/>
+      <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95" t="s">
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="94"/>
+      <c r="AC30" s="94"/>
+      <c r="AD30" s="94"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="20"/>
@@ -12107,7 +12371,7 @@
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
     </row>
-    <row r="38" spans="1:30" s="95" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="94" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="51" t="s">
@@ -12182,6 +12446,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12198,54 +12510,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12279,11 +12543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12397,141 +12661,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="A6" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="124" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="124" t="s">
+      <c r="U8" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="124" t="s">
+      <c r="V8" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="124" t="s">
+      <c r="W8" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="124" t="s">
+      <c r="X8" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="110" t="s">
+      <c r="Y8" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="110"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="99"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107">
+      <c r="A10" s="114">
         <v>1</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="116" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12582,29 +12846,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="101">
+      <c r="T10" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="123">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12653,17 +12917,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="123"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12712,19 +12976,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="123"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12773,12 +13037,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="101"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="123"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12793,10 +13057,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -12863,16 +13127,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12887,6 +13141,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13051,63 +13315,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -13137,94 +13401,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="99" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="99"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="114">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="114">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="116" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -13275,28 +13539,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="162">
+      <c r="U11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="163">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13345,18 +13609,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="162"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="163"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13405,20 +13669,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="162"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="163"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13467,18 +13731,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="162"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="163"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13542,6 +13806,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13555,18 +13831,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="106">
   <si>
     <t>Посада</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Борис Н.Ю  (01.10.21)</t>
+  </si>
+  <si>
+    <t>Арабчук Лілія Василівна</t>
   </si>
 </sst>
 </file>
@@ -5020,8 +5023,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:S34"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -7044,7 +7047,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="E11" sqref="E11:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -7612,11 +7615,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="117"/>
       <c r="C15" s="117" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D15" s="116" t="s">
         <v>37</v>
@@ -8006,8 +8009,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13:X14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8373,14 +8376,14 @@
         <v>8</v>
       </c>
       <c r="X11" s="120">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="137">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8391,17 +8394,17 @@
       <c r="E12" s="26">
         <v>8</v>
       </c>
-      <c r="F12" s="26">
-        <v>8</v>
-      </c>
-      <c r="G12" s="26">
-        <v>8</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>13</v>
+      <c r="F12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="26">
+        <v>8</v>
+      </c>
+      <c r="I12" s="26">
+        <v>8</v>
       </c>
       <c r="J12" s="26">
         <v>8</v>
@@ -8412,29 +8415,29 @@
       <c r="L12" s="26">
         <v>8</v>
       </c>
-      <c r="M12" s="26">
-        <v>8</v>
-      </c>
-      <c r="N12" s="26">
-        <v>8</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>13</v>
+      <c r="M12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="26">
+        <v>8</v>
+      </c>
+      <c r="P12" s="26">
+        <v>8</v>
       </c>
       <c r="Q12" s="26">
-        <v>8</v>
-      </c>
-      <c r="R12" s="26">
-        <v>8</v>
-      </c>
-      <c r="S12" s="26">
-        <v>8</v>
-      </c>
-      <c r="T12" s="26">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="U12" s="118"/>
       <c r="V12" s="118"/>
@@ -8500,7 +8503,7 @@
       <c r="W13" s="121"/>
       <c r="X13" s="120">
         <f>Z11+Z14</f>
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Y13" s="138"/>
     </row>
@@ -8509,14 +8512,14 @@
       <c r="B14" s="130"/>
       <c r="C14" s="143"/>
       <c r="D14" s="146"/>
-      <c r="E14" s="26">
-        <v>8</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>13</v>
+      <c r="E14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="26">
+        <v>8</v>
+      </c>
+      <c r="G14" s="26">
+        <v>8</v>
       </c>
       <c r="H14" s="26">
         <v>8</v>
@@ -8530,14 +8533,14 @@
       <c r="K14" s="26">
         <v>8</v>
       </c>
-      <c r="L14" s="26">
-        <v>8</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>13</v>
+      <c r="L14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="26">
+        <v>8</v>
+      </c>
+      <c r="N14" s="26">
+        <v>8</v>
       </c>
       <c r="O14" s="26">
         <v>8</v>
@@ -8548,11 +8551,11 @@
       <c r="Q14" s="26">
         <v>8</v>
       </c>
-      <c r="R14" s="26">
-        <v>8</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>10</v>
+      <c r="R14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="T14" s="29" t="s">
         <v>10</v>
@@ -8564,7 +8567,7 @@
       <c r="Y14" s="139"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10664,8 +10667,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -10974,8 +10977,8 @@
       <c r="V9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="120" t="s">
-        <v>8</v>
+      <c r="W9" s="120">
+        <v>9</v>
       </c>
       <c r="X9" s="120">
         <v>20</v>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Коломия" sheetId="18" r:id="rId6"/>
     <sheet name="Місюра" sheetId="8" r:id="rId7"/>
     <sheet name="Петришин" sheetId="23" r:id="rId8"/>
-    <sheet name="Грималюк" sheetId="22" r:id="rId9"/>
-    <sheet name="Слуценко" sheetId="21" r:id="rId10"/>
+    <sheet name="Слуценко" sheetId="21" r:id="rId9"/>
+    <sheet name="Грималюк" sheetId="22" r:id="rId10"/>
     <sheet name="Обрій" sheetId="17" r:id="rId11"/>
     <sheet name="Ерідан" sheetId="19" r:id="rId12"/>
     <sheet name="Старчевська" sheetId="12" r:id="rId13"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="106">
   <si>
     <t>Посада</t>
   </si>
@@ -957,6 +957,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,48 +1038,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1062,13 +1071,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,15 +1101,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1113,15 +1113,27 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,18 +1147,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1481,49 +1481,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
@@ -1633,147 +1633,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1824,28 +1824,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>22</v>
       </c>
-      <c r="Z11" s="123">
+      <c r="Z11" s="102">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1894,22 +1894,22 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>35.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1958,25 +1958,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <f>AB13</f>
         <v>79.5</v>
       </c>
-      <c r="Z13" s="123"/>
+      <c r="Z13" s="102"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>79.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -2025,12 +2025,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="102"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>44</v>
@@ -2115,18 +2115,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125">
+      <c r="C18" s="103"/>
+      <c r="D18" s="104">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="L18" s="92" t="s">
         <v>101</v>
       </c>
@@ -2168,18 +2168,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2196,6 +2184,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:T14"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2222,12 +2222,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -2240,25 +2240,25 @@
       <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="A2" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
       <c r="R2" s="15" t="s">
         <v>41</v>
       </c>
@@ -2271,27 +2271,27 @@
       <c r="Y2" s="16"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62">
-        <v>3284801354</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="67">
+        <v>2742203101</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
       <c r="R3" s="15" t="s">
         <v>42</v>
       </c>
@@ -2304,23 +2304,23 @@
       <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
       <c r="R4" s="15" t="s">
         <v>43</v>
       </c>
@@ -2333,208 +2333,208 @@
       <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="str">
+      <c r="A7" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>16</v>
+      <c r="C11" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>74</v>
       </c>
       <c r="E11" s="25">
         <v>1</v>
@@ -2584,28 +2584,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="147"/>
-      <c r="Y11" s="120">
-        <v>20</v>
+      <c r="Y11" s="99" t="s">
+        <v>8</v>
       </c>
       <c r="Z11" s="163">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2654,18 +2654,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="148"/>
-      <c r="Y12" s="122"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="163"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2714,20 +2714,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="148"/>
-      <c r="Y13" s="120">
-        <v>160</v>
+      <c r="Y13" s="99" t="s">
+        <v>8</v>
       </c>
       <c r="Z13" s="163"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2776,24 +2776,24 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="149"/>
-      <c r="Y14" s="122"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="163"/>
     </row>
-    <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="124" t="s">
+    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="58">
+      <c r="C15" s="103"/>
+      <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="L15" s="59" t="s">
-        <v>79</v>
+      <c r="L15" s="64" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -3063,147 +3063,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3254,29 +3254,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="120">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="99">
         <v>21</v>
       </c>
-      <c r="Y11" s="120"/>
+      <c r="Y11" s="99"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3325,17 +3325,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3384,23 +3384,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121">
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100">
         <v>42</v>
       </c>
-      <c r="Y13" s="121"/>
+      <c r="Y13" s="100"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3449,11 +3449,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3512,10 +3512,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -3579,6 +3579,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3588,20 +3602,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3789,147 +3789,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3980,29 +3980,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="120">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="99">
         <v>21</v>
       </c>
-      <c r="Y11" s="137"/>
+      <c r="Y11" s="140"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4051,17 +4051,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="138"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4110,20 +4110,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="120">
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="99">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="138"/>
+      <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4172,11 +4172,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="139"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4235,10 +4235,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -4302,19 +4302,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4325,6 +4312,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4353,12 +4353,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4502,149 +4502,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>2</v>
       </c>
       <c r="C11" s="126" t="s">
@@ -4701,26 +4701,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>21</v>
       </c>
-      <c r="Z11" s="123">
+      <c r="Z11" s="102">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="126"/>
       <c r="D12" s="127"/>
       <c r="E12" s="26" t="s">
@@ -4771,16 +4771,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="27">
@@ -4831,18 +4831,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <v>42</v>
       </c>
-      <c r="Z13" s="123"/>
+      <c r="Z13" s="102"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="26">
@@ -4893,18 +4893,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="102"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4986,6 +4986,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5002,15 +5011,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5043,11 +5043,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5161,141 +5161,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="113" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="113" t="s">
+      <c r="U9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5346,27 +5346,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="120" t="s">
+      <c r="T11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="120">
+      <c r="X11" s="99">
         <v>20</v>
       </c>
-      <c r="Y11" s="123">
+      <c r="Y11" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5415,21 +5415,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="123"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5478,24 +5478,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="121"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="120">
+      <c r="X13" s="99">
         <f>Z12+Z14</f>
         <v>159</v>
       </c>
-      <c r="Y13" s="123"/>
+      <c r="Y13" s="102"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -5544,25 +5544,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="122"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114">
-        <v>2</v>
-      </c>
-      <c r="B15" s="115" t="s">
+      <c r="A15" s="108">
+        <v>2</v>
+      </c>
+      <c r="B15" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="110" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5613,20 +5613,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="120" t="s">
+      <c r="T15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="120">
+      <c r="X15" s="99">
         <v>20</v>
       </c>
-      <c r="Y15" s="123">
+      <c r="Y15" s="102">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5635,9 +5635,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5686,12 +5686,12 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="121"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="123"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5701,9 +5701,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5752,24 +5752,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="121"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="120">
+      <c r="X17" s="99">
         <f>Z15+Z17</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="123"/>
+      <c r="Y17" s="102"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -5818,21 +5818,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="122"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="101"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="123"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="114">
+      <c r="A19" s="108">
         <v>3</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="110" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5883,27 +5883,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="120" t="s">
+      <c r="T19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="120">
+      <c r="X19" s="99">
         <v>20</v>
       </c>
-      <c r="Y19" s="123">
+      <c r="Y19" s="102">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5952,21 +5952,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="121"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="123"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="102"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6015,24 +6015,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="121"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="120">
+      <c r="X21" s="99">
         <f>Z20+Z22</f>
         <v>159</v>
       </c>
-      <c r="Y21" s="123"/>
+      <c r="Y21" s="102"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
@@ -6081,25 +6081,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="122"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="101"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="123"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="102"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="114">
+      <c r="A23" s="108">
         <v>4</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="110" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6150,27 +6150,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="120" t="s">
+      <c r="T23" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="120">
+      <c r="X23" s="99">
         <v>20</v>
       </c>
-      <c r="Y23" s="123">
+      <c r="Y23" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6219,21 +6219,21 @@
       <c r="S24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="121"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="123"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="102"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6282,24 +6282,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="121"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="120">
+      <c r="X25" s="99">
         <f>Z24+Z26</f>
         <v>159</v>
       </c>
-      <c r="Y25" s="123"/>
+      <c r="Y25" s="102"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
@@ -6348,19 +6348,19 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="122"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="101"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="123"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="102"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114">
+      <c r="A27" s="108">
         <v>5</v>
       </c>
       <c r="B27" s="126" t="s">
@@ -6417,20 +6417,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="120" t="s">
+      <c r="T27" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="120">
+      <c r="X27" s="99">
         <v>20</v>
       </c>
-      <c r="Y27" s="123">
+      <c r="Y27" s="102">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6438,7 +6438,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="126"/>
       <c r="C28" s="127"/>
       <c r="D28" s="26">
@@ -6489,15 +6489,15 @@
       <c r="S28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="121"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="123"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="102"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="126"/>
       <c r="C29" s="127"/>
       <c r="D29" s="27">
@@ -6548,17 +6548,17 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="121"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="120">
+      <c r="X29" s="99">
         <v>32</v>
       </c>
-      <c r="Y29" s="123"/>
+      <c r="Y29" s="102"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="126"/>
       <c r="C30" s="127"/>
       <c r="D30" s="26" t="s">
@@ -6609,21 +6609,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="122"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="101"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="123"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="102"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="114">
+      <c r="A31" s="108">
         <v>6</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="110" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6674,27 +6674,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="120" t="s">
+      <c r="T31" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="120">
+      <c r="X31" s="99">
         <v>20</v>
       </c>
-      <c r="Y31" s="123">
+      <c r="Y31" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6743,12 +6743,12 @@
       <c r="S32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="121"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="100"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="123"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="102"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>71</v>
@@ -6759,9 +6759,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6810,20 +6810,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="121"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="100"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="120">
+      <c r="X33" s="99">
         <f>Z32+Z34</f>
         <v>159</v>
       </c>
-      <c r="Y33" s="123"/>
+      <c r="Y33" s="102"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="26" t="s">
         <v>13</v>
       </c>
@@ -6872,12 +6872,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="119"/>
-      <c r="U34" s="119"/>
-      <c r="V34" s="122"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="101"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="123"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="102"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>88</v>
@@ -6896,10 +6896,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="124"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="33">
         <v>44501</v>
       </c>
@@ -6965,15 +6965,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -6990,49 +7024,15 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7200,63 +7200,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="str">
+      <c r="A7" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7286,90 +7286,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="128">
+      <c r="A11" s="131">
         <v>1</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7420,22 +7420,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="120">
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="99">
         <v>20</v>
       </c>
-      <c r="Z11" s="134">
+      <c r="Z11" s="128">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="129"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7484,18 +7484,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="129"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="129"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7544,20 +7544,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="120">
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="99">
         <v>159</v>
       </c>
-      <c r="Z13" s="135"/>
+      <c r="Z13" s="129"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="130"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -7606,22 +7606,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="130"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="128">
-        <v>2</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117" t="s">
+      <c r="A15" s="131">
+        <v>2</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="110" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -7672,22 +7672,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="120">
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="99">
         <v>20</v>
       </c>
-      <c r="Z15" s="134">
+      <c r="Z15" s="128">
         <v>6060</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="129"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="116"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -7736,18 +7736,18 @@
       <c r="T16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="129"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="129"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="116"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -7796,20 +7796,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="120">
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="99">
         <v>79.5</v>
       </c>
-      <c r="Z17" s="135"/>
+      <c r="Z17" s="129"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="116"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
@@ -7858,12 +7858,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="136"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="130"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -7894,10 +7894,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="97" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -7961,13 +7961,19 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -7984,19 +7990,13 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8009,7 +8009,7 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
@@ -8025,12 +8025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8175,147 +8175,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="128">
+      <c r="B11" s="131">
         <v>1</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="137" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8366,19 +8366,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="120">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="99">
         <v>20</v>
       </c>
-      <c r="Y11" s="137">
+      <c r="Y11" s="140">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8387,10 +8387,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="145"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8439,17 +8439,17 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="138"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="145"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8498,20 +8498,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="120">
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="99">
         <f>Z11+Z14</f>
         <v>159</v>
       </c>
-      <c r="Y13" s="138"/>
+      <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="146"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -8560,11 +8560,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="139"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>88</v>
@@ -8598,10 +8598,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8680,12 +8680,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8696,14 +8698,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8716,8 +8716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S20" sqref="Q20:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8734,11 +8734,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8882,145 +8882,145 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="113" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="113" t="s">
+      <c r="U9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -9071,27 +9071,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="120" t="s">
+      <c r="T11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="147"/>
-      <c r="X11" s="120">
+      <c r="X11" s="99">
         <v>20</v>
       </c>
-      <c r="Y11" s="123">
+      <c r="Y11" s="102">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -9140,21 +9140,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="148"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="123"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -9203,20 +9203,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="121"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="148"/>
-      <c r="X13" s="120">
+      <c r="X13" s="99">
         <f>Z12+Z14</f>
         <v>40</v>
       </c>
-      <c r="Y13" s="123"/>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -9265,25 +9265,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="122"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="149"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114">
-        <v>2</v>
-      </c>
-      <c r="B15" s="115" t="s">
+      <c r="A15" s="108">
+        <v>2</v>
+      </c>
+      <c r="B15" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="110" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9334,27 +9334,27 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="120" t="s">
+      <c r="T15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="147"/>
-      <c r="X15" s="120">
+      <c r="X15" s="99">
         <v>20</v>
       </c>
-      <c r="Y15" s="123">
+      <c r="Y15" s="102">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9403,21 +9403,21 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="121"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="148"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="123"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9466,20 +9466,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="121"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="148"/>
-      <c r="X17" s="120">
+      <c r="X17" s="99">
         <f>Z16+Z18</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="123"/>
+      <c r="Y17" s="102"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -9528,25 +9528,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="122"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="101"/>
       <c r="W18" s="149"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="123"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="114">
+      <c r="A19" s="131">
         <v>3</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="137" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="25">
@@ -9597,27 +9597,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="120" t="s">
+      <c r="T19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="147"/>
-      <c r="X19" s="120">
+      <c r="X19" s="99">
         <v>20</v>
       </c>
-      <c r="Y19" s="123">
+      <c r="Y19" s="140">
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9627,20 +9627,20 @@
       <c r="F20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="26">
-        <v>4</v>
-      </c>
-      <c r="H20" s="26">
-        <v>4</v>
-      </c>
-      <c r="I20" s="26">
-        <v>4</v>
-      </c>
-      <c r="J20" s="26">
-        <v>4</v>
-      </c>
-      <c r="K20" s="26">
-        <v>4</v>
+      <c r="G20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="L20" s="26" t="s">
         <v>13</v>
@@ -9648,14 +9648,14 @@
       <c r="M20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="26">
-        <v>4</v>
-      </c>
-      <c r="O20" s="26">
-        <v>4</v>
-      </c>
-      <c r="P20" s="26">
-        <v>3.5</v>
+      <c r="N20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>13</v>
@@ -9666,21 +9666,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="121"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="148"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="123"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="141"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
-        <v>35.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9729,58 +9729,58 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="121"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="148"/>
-      <c r="X21" s="120">
+      <c r="X21" s="99">
         <f>Z20+Z22</f>
-        <v>79.5</v>
-      </c>
-      <c r="Y21" s="123"/>
+        <v>4</v>
+      </c>
+      <c r="Y21" s="141"/>
     </row>
     <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="26">
-        <v>4</v>
-      </c>
-      <c r="F22" s="26">
-        <v>4</v>
-      </c>
-      <c r="G22" s="26">
-        <v>4</v>
-      </c>
-      <c r="H22" s="26">
-        <v>4</v>
-      </c>
-      <c r="I22" s="26">
-        <v>4</v>
-      </c>
-      <c r="J22" s="26">
-        <v>4</v>
+      <c r="E22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="26">
-        <v>4</v>
-      </c>
-      <c r="M22" s="26">
-        <v>4</v>
-      </c>
-      <c r="N22" s="26">
-        <v>4</v>
-      </c>
-      <c r="O22" s="26">
-        <v>4</v>
-      </c>
-      <c r="P22" s="26">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>13</v>
@@ -9791,15 +9791,15 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="122"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="101"/>
       <c r="W22" s="149"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="123"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="142"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
@@ -9906,36 +9906,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W19:W22"/>
     <mergeCell ref="V19:V22"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="W19:W22"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -9949,6 +9924,31 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9976,49 +9976,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -10128,147 +10128,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10319,20 +10319,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>22</v>
       </c>
-      <c r="Z11" s="123">
+      <c r="Z11" s="102">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10341,10 +10341,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10393,18 +10393,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10453,24 +10453,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <v>44</v>
       </c>
-      <c r="Z13" s="123"/>
+      <c r="Z13" s="102"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -10519,12 +10519,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="102"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -10609,10 +10609,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="150">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -10627,14 +10627,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10650,11 +10647,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10688,11 +10688,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10782,142 +10782,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="A5" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="str">
+      <c r="A6" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="113" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="113" t="s">
+      <c r="U7" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="113" t="s">
+      <c r="V7" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="113" t="s">
+      <c r="W7" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="113" t="s">
+      <c r="X7" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="99" t="s">
+      <c r="Y7" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="99"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="111"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114">
+      <c r="A9" s="108">
         <v>1</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="137" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10968,29 +10968,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="120">
+      <c r="T9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="99">
         <v>9</v>
       </c>
-      <c r="X9" s="120">
+      <c r="X9" s="99">
         <v>20</v>
       </c>
-      <c r="Y9" s="123">
+      <c r="Y9" s="102">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="145"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="26" t="s">
         <v>88</v>
       </c>
@@ -11039,21 +11039,21 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="123"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="102"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="145"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -11102,20 +11102,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="120">
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="99">
         <f>Z10+Z12</f>
         <v>88</v>
       </c>
-      <c r="Y11" s="123"/>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="146"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -11164,25 +11164,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="123"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114">
-        <v>2</v>
-      </c>
-      <c r="B13" s="115" t="s">
+      <c r="A13" s="108">
+        <v>2</v>
+      </c>
+      <c r="B13" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="116" t="str">
+      <c r="C13" s="110" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -11234,22 +11234,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="120">
+      <c r="T13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="99">
         <v>20</v>
       </c>
-      <c r="Y13" s="123">
+      <c r="Y13" s="102">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -11261,9 +11261,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11312,12 +11312,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>71</v>
@@ -11328,9 +11328,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11379,20 +11379,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="120">
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="99">
         <f>Z14+Z16</f>
         <v>159</v>
       </c>
-      <c r="Y15" s="123"/>
+      <c r="Y15" s="102"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -11441,12 +11441,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="123"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -11457,13 +11457,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="157">
+      <c r="A17" s="161">
         <v>3</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="154" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11514,29 +11514,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="151">
+      <c r="T17" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="155">
         <v>20</v>
       </c>
-      <c r="Y17" s="123">
+      <c r="Y17" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="157"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -11585,21 +11585,21 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="152"/>
-      <c r="W18" s="152"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="123"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="157"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="102"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>35.5</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11648,20 +11648,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="118"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="152"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="120">
+      <c r="T19" s="106"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="99">
         <f>Z18+Z20</f>
         <v>79.5</v>
       </c>
-      <c r="Y19" s="123"/>
+      <c r="Y19" s="102"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -11710,25 +11710,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="119"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="123"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="102"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="128">
+      <c r="A21" s="131">
         <v>4</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="154" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11779,29 +11779,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="120">
+      <c r="T21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="99">
         <v>20</v>
       </c>
-      <c r="Y21" s="123">
+      <c r="Y21" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="129"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="159"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="154"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11850,21 +11850,21 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="123"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="102"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="129"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="159"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="154"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11913,20 +11913,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="120">
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="99">
         <f>Z22+Z24</f>
         <v>159</v>
       </c>
-      <c r="Y23" s="123"/>
+      <c r="Y23" s="102"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="130"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="159"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
@@ -11975,25 +11975,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="123"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="102"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="128">
+      <c r="A25" s="131">
         <v>4</v>
       </c>
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="154" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -12044,29 +12044,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="120">
+      <c r="T25" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="99">
         <v>20</v>
       </c>
-      <c r="Y25" s="123">
+      <c r="Y25" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="129"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="159"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="154"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -12115,21 +12115,21 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="123"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="102"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="129"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="159"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="154"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -12178,20 +12178,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="120">
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="99">
         <f>Z26+Z28</f>
         <v>159</v>
       </c>
-      <c r="Y27" s="123"/>
+      <c r="Y27" s="102"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="130"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="159"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
       <c r="D28" s="26" t="s">
         <v>13</v>
       </c>
@@ -12240,12 +12240,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="123"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="102"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -12285,10 +12285,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="124"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -12449,54 +12449,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12513,6 +12465,54 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12546,11 +12546,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12664,141 +12664,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="113" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="113" t="s">
+      <c r="U8" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="113" t="s">
+      <c r="V8" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="113" t="s">
+      <c r="W8" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="113" t="s">
+      <c r="X8" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="99" t="s">
+      <c r="Y8" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="99"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="111"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114">
+      <c r="A10" s="108">
         <v>1</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="110" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12849,29 +12849,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="123">
+      <c r="T10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="102">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12920,17 +12920,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="123"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12979,19 +12979,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="123"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -13040,12 +13040,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="123"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -13060,10 +13060,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="124"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13130,6 +13130,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -13144,16 +13154,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13165,8 +13165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -13180,12 +13180,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -13198,25 +13198,25 @@
       <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="A2" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
       <c r="R2" s="15" t="s">
         <v>41</v>
       </c>
@@ -13229,27 +13229,27 @@
       <c r="Y2" s="16"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="67">
-        <v>2742203101</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62">
+        <v>3284801354</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="15" t="s">
         <v>42</v>
       </c>
@@ -13262,23 +13262,23 @@
       <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
       <c r="R4" s="15" t="s">
         <v>43</v>
       </c>
@@ -13291,208 +13291,208 @@
       <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="str">
+      <c r="A7" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>74</v>
+      <c r="C11" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="25">
         <v>1</v>
@@ -13542,28 +13542,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="147"/>
-      <c r="Y11" s="120" t="s">
-        <v>8</v>
+      <c r="Y11" s="99">
+        <v>20</v>
       </c>
       <c r="Z11" s="163">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13612,18 +13612,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="148"/>
-      <c r="Y12" s="122"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="163"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13672,20 +13672,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="148"/>
-      <c r="Y13" s="120" t="s">
-        <v>8</v>
+      <c r="Y13" s="99">
+        <v>160</v>
       </c>
       <c r="Z13" s="163"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13734,24 +13734,24 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="149"/>
-      <c r="Y14" s="122"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="163"/>
     </row>
-    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="124" t="s">
+    <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="66">
+      <c r="C15" s="103"/>
+      <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="L15" s="64" t="s">
-        <v>82</v>
+      <c r="L15" s="59" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>Головний інженер проекту</t>
   </si>
   <si>
-    <t>Петрів Наталія Ярославівна (СУМ. 06.08.21)</t>
-  </si>
-  <si>
     <t>ФОП____________Угринчук В. Г.</t>
   </si>
   <si>
@@ -350,12 +347,15 @@
   <si>
     <t>Арабчук Лілія Василівна</t>
   </si>
+  <si>
+    <t>Петрів Наталія Ярославівна (СУМ. 06.08.21б ЗВ 1.10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +524,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -665,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -957,6 +979,81 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -975,75 +1072,30 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,23 +1105,26 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,27 +1135,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1147,33 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,33 +1181,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1481,49 +1515,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
+      <c r="A2" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
@@ -1633,147 +1667,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="103"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="110" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="120" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1824,28 +1858,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="99">
+      <c r="Y11" s="124">
         <v>22</v>
       </c>
-      <c r="Z11" s="102">
+      <c r="Z11" s="127">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1894,22 +1928,22 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="127"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>35.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1958,25 +1992,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="99">
+      <c r="Y13" s="124">
         <f>AB13</f>
         <v>79.5</v>
       </c>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="127"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>79.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -2025,12 +2059,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="102"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="127"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>44</v>
@@ -2115,20 +2149,20 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104">
+      <c r="C18" s="128"/>
+      <c r="D18" s="129">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
       <c r="L18" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2168,6 +2202,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2184,18 +2230,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2360,63 +2394,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
+      <c r="A6" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -2446,94 +2480,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="103"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="118">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="120" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2584,28 +2618,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="163">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="167">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2654,18 +2688,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="163"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="167"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2714,20 +2748,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="163"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="167"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2776,18 +2810,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="163"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="167"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -2851,6 +2885,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2864,18 +2910,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3063,147 +3097,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="103"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="118">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="120" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3254,29 +3288,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="99">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="124">
         <v>21</v>
       </c>
-      <c r="Y11" s="99"/>
+      <c r="Y11" s="124"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3325,17 +3359,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3384,23 +3418,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100">
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125">
         <v>42</v>
       </c>
-      <c r="Y13" s="100"/>
+      <c r="Y13" s="125"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3449,11 +3483,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3512,10 +3546,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="143"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -3579,6 +3613,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -3588,20 +3636,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3789,147 +3823,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="103"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="118">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="120" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3980,29 +4014,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="99">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="124">
         <v>21</v>
       </c>
-      <c r="Y11" s="140"/>
+      <c r="Y11" s="141"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4051,17 +4085,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="141"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="142"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4110,20 +4144,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="99">
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="124">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="141"/>
+      <c r="Y13" s="142"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4172,11 +4206,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="142"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="143"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4235,10 +4269,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="143"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -4302,6 +4336,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4312,19 +4359,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4353,12 +4387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4502,155 +4536,155 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="103"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
-        <v>2</v>
-      </c>
-      <c r="C11" s="126" t="s">
+      <c r="B11" s="118">
+        <v>2</v>
+      </c>
+      <c r="C11" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="131" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="25">
@@ -4701,28 +4735,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="99">
+      <c r="Y11" s="124">
         <v>21</v>
       </c>
-      <c r="Z11" s="102">
+      <c r="Z11" s="127">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4771,18 +4805,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="127"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4831,20 +4865,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="99">
+      <c r="Y13" s="124">
         <v>42</v>
       </c>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="127"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4893,18 +4927,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="102"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="127"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4986,15 +5020,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5011,6 +5036,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5043,11 +5077,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5161,141 +5195,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
+      <c r="A8" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="125" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="103"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5346,27 +5380,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="99" t="s">
+      <c r="T11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="124" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="99">
+      <c r="X11" s="124">
         <v>20</v>
       </c>
-      <c r="Y11" s="102">
+      <c r="Y11" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5415,21 +5449,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="125"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="127"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5478,24 +5512,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="125"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="99">
+      <c r="X13" s="124">
         <f>Z12+Z14</f>
         <v>159</v>
       </c>
-      <c r="Y13" s="102"/>
+      <c r="Y13" s="127"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -5544,25 +5578,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="101"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="126"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="127"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108">
-        <v>2</v>
-      </c>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="118">
+        <v>2</v>
+      </c>
+      <c r="B15" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="120" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5613,20 +5647,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="99" t="s">
+      <c r="T15" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="124" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="99">
+      <c r="X15" s="124">
         <v>20</v>
       </c>
-      <c r="Y15" s="102">
+      <c r="Y15" s="127">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5635,9 +5669,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5686,12 +5720,12 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="127"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5701,9 +5735,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5752,24 +5786,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="100"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="125"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="99">
+      <c r="X17" s="124">
         <f>Z15+Z17</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="102"/>
+      <c r="Y17" s="127"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -5818,21 +5852,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="101"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="126"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="127"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="108">
+      <c r="A19" s="118">
         <v>3</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="120" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5883,27 +5917,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="99" t="s">
+      <c r="T19" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="124" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="99">
+      <c r="X19" s="124">
         <v>20</v>
       </c>
-      <c r="Y19" s="102">
+      <c r="Y19" s="127">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5952,21 +5986,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="100"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="125"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="102"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="127"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6015,24 +6049,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="100"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="125"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="99">
+      <c r="X21" s="124">
         <f>Z20+Z22</f>
         <v>159</v>
       </c>
-      <c r="Y21" s="102"/>
+      <c r="Y21" s="127"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
@@ -6081,25 +6115,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="101"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="126"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="102"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="127"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="108">
+      <c r="A23" s="118">
         <v>4</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="120" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6150,27 +6184,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="99" t="s">
+      <c r="T23" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="124" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="99">
+      <c r="X23" s="124">
         <v>20</v>
       </c>
-      <c r="Y23" s="102">
+      <c r="Y23" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6219,21 +6253,21 @@
       <c r="S24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="100"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="125"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="102"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="127"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6282,24 +6316,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="100"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="125"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="99">
+      <c r="X25" s="124">
         <f>Z24+Z26</f>
         <v>159</v>
       </c>
-      <c r="Y25" s="102"/>
+      <c r="Y25" s="127"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
@@ -6348,25 +6382,25 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="101"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="126"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="102"/>
+      <c r="X26" s="126"/>
+      <c r="Y26" s="127"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108">
+      <c r="A27" s="118">
         <v>5</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="131" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25">
@@ -6417,20 +6451,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="99" t="s">
+      <c r="T27" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="124" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="99">
+      <c r="X27" s="124">
         <v>20</v>
       </c>
-      <c r="Y27" s="102">
+      <c r="Y27" s="127">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6438,9 +6472,9 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="108"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -6489,17 +6523,17 @@
       <c r="S28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="100"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="125"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="102"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="127"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="108"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="27">
         <v>17</v>
       </c>
@@ -6548,19 +6582,19 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="100"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="125"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="99">
+      <c r="X29" s="124">
         <v>32</v>
       </c>
-      <c r="Y29" s="102"/>
+      <c r="Y29" s="127"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="108"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="26" t="s">
         <v>13</v>
       </c>
@@ -6609,21 +6643,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="101"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="126"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="102"/>
+      <c r="X30" s="126"/>
+      <c r="Y30" s="127"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108">
+      <c r="A31" s="118">
         <v>6</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="120" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6674,27 +6708,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="99" t="s">
+      <c r="T31" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="124" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="99">
+      <c r="X31" s="124">
         <v>20</v>
       </c>
-      <c r="Y31" s="102">
+      <c r="Y31" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="108"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6743,12 +6777,12 @@
       <c r="S32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="100"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="125"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="102"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="127"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>71</v>
@@ -6759,9 +6793,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6810,20 +6844,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="100"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="125"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="99">
+      <c r="X33" s="124">
         <f>Z32+Z34</f>
         <v>159</v>
       </c>
-      <c r="Y33" s="102"/>
+      <c r="Y33" s="127"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="26" t="s">
         <v>13</v>
       </c>
@@ -6872,12 +6906,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="101"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="126"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="102"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="127"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>88</v>
@@ -6896,10 +6930,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="103"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="33">
         <v>44501</v>
       </c>
@@ -6965,33 +6999,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -7008,31 +7040,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7046,8 +7080,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:T14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -7200,63 +7234,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
+      <c r="A6" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7286,90 +7320,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="121"/>
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="103"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="131">
+      <c r="A11" s="132">
         <v>1</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="121"/>
+      <c r="C11" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="120" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7420,22 +7454,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="99">
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="124">
         <v>20</v>
       </c>
-      <c r="Z11" s="128">
+      <c r="Z11" s="138">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="132"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7484,18 +7518,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="129"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="139"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="132"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7544,20 +7578,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="99">
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="124">
         <v>159</v>
       </c>
-      <c r="Z13" s="129"/>
+      <c r="Z13" s="139"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -7606,22 +7640,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="130"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="140"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="131">
-        <v>2</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="110" t="s">
+      <c r="A15" s="132">
+        <v>2</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="120" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -7672,22 +7706,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
-      <c r="Y15" s="99">
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="124">
         <v>20</v>
       </c>
-      <c r="Z15" s="128">
+      <c r="Z15" s="138">
         <v>6060</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="132"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="110"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -7736,18 +7770,18 @@
       <c r="T16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="129"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="139"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="132"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="110"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -7796,20 +7830,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="99">
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="136"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="124">
         <v>79.5</v>
       </c>
-      <c r="Z17" s="129"/>
+      <c r="Z17" s="139"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="133"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="110"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
@@ -7858,12 +7892,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="130"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="140"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -7894,10 +7928,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="97" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="128"/>
       <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -7961,19 +7995,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -7990,13 +8018,19 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8025,12 +8059,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8175,147 +8209,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="103"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="131">
+      <c r="B11" s="132">
         <v>1</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="148" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8366,19 +8400,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="99">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="124">
         <v>20</v>
       </c>
-      <c r="Y11" s="140">
+      <c r="Y11" s="141">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8387,10 +8421,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="138"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8439,17 +8473,17 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="141"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="142"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="138"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="149"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8498,20 +8532,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="99">
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="124">
         <f>Z11+Z14</f>
         <v>159</v>
       </c>
-      <c r="Y13" s="141"/>
+      <c r="Y13" s="142"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="139"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="150"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -8560,11 +8594,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="142"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="143"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>88</v>
@@ -8598,10 +8632,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8680,14 +8714,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8698,12 +8730,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8716,8 +8750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S20" sqref="Q20:S20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8730,19 +8764,21 @@
     <col min="23" max="23" width="3.81640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="2" customWidth="1"/>
     <col min="25" max="25" width="13.36328125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="26" max="26" width="9.08984375" style="100"/>
+    <col min="27" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16"/>
+      <c r="Z1" s="99"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="81" t="s">
@@ -8772,6 +8808,7 @@
       <c r="V2" s="81"/>
       <c r="W2" s="81"/>
       <c r="X2" s="81"/>
+      <c r="Z2" s="99"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="81" t="s">
@@ -8801,6 +8838,7 @@
       <c r="V3" s="81"/>
       <c r="W3" s="81"/>
       <c r="X3" s="81"/>
+      <c r="Z3" s="99"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="81"/>
@@ -8828,6 +8866,7 @@
       <c r="V4" s="81"/>
       <c r="W4" s="81"/>
       <c r="X4" s="81"/>
+      <c r="Z4" s="99"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="81"/>
@@ -8854,6 +8893,7 @@
       <c r="V5" s="81"/>
       <c r="W5" s="81"/>
       <c r="X5" s="81"/>
+      <c r="Z5" s="99"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="81"/>
@@ -8880,147 +8920,148 @@
       <c r="V6" s="81"/>
       <c r="W6" s="81"/>
       <c r="X6" s="81"/>
+      <c r="Z6" s="99"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="125" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="103"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="120" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -9071,27 +9112,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="147"/>
-      <c r="X11" s="99">
+      <c r="T11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="151"/>
+      <c r="X11" s="124">
         <v>20</v>
       </c>
-      <c r="Y11" s="102">
+      <c r="Y11" s="127">
         <v>6000</v>
       </c>
+      <c r="Z11" s="101"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -9140,21 +9182,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="3">
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="101">
         <f>SUM(D12:S12)</f>
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -9203,20 +9245,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="99">
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="152"/>
+      <c r="X13" s="124">
         <f>Z12+Z14</f>
         <v>40</v>
       </c>
-      <c r="Y13" s="102"/>
+      <c r="Y13" s="127"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -9265,25 +9307,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="2">
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="100">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108">
-        <v>2</v>
-      </c>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="118">
+        <v>2</v>
+      </c>
+      <c r="B15" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="120" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9334,27 +9376,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="147"/>
-      <c r="X15" s="99">
+      <c r="T15" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="151"/>
+      <c r="X15" s="124">
         <v>20</v>
       </c>
-      <c r="Y15" s="102">
+      <c r="Y15" s="127">
         <v>6000</v>
       </c>
+      <c r="Z15" s="101"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9403,21 +9446,21 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="3">
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="101">
         <f>SUM(D16:S16)</f>
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9466,20 +9509,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="99">
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="124">
         <f>Z16+Z18</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="102"/>
+      <c r="Y17" s="127"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -9528,25 +9571,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="2">
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="100">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="131">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="132">
         <v>3</v>
       </c>
-      <c r="B19" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="137" t="s">
+      <c r="B19" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="148" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="25">
@@ -9597,27 +9640,28 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" s="147"/>
-      <c r="X19" s="99">
+      <c r="T19" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="151"/>
+      <c r="X19" s="124">
         <v>20</v>
       </c>
-      <c r="Y19" s="140">
+      <c r="Y19" s="141">
         <v>6000</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="132"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="138"/>
+      <c r="Z19" s="101"/>
+    </row>
+    <row r="20" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="133"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9666,21 +9710,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="3">
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="101">
         <f>SUM(D20:S20)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="132"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="138"/>
+    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="133"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9729,20 +9773,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="99">
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="152"/>
+      <c r="X21" s="124">
         <f>Z20+Z22</f>
         <v>4</v>
       </c>
-      <c r="Y21" s="141"/>
-    </row>
-    <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="133"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="139"/>
+      <c r="Y21" s="142"/>
+    </row>
+    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="134"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="150"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
@@ -9791,13 +9835,13 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="2">
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="100">
         <f>SUM(D22:S22)</f>
         <v>0</v>
       </c>
@@ -9906,11 +9950,31 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W19:W22"/>
-    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -9924,31 +9988,11 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="V19:V22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9960,7 +10004,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A7" sqref="A7:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -9971,54 +10015,59 @@
     <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
     <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
     <col min="25" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="27" width="6.1796875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="2"/>
+    <col min="27" max="27" width="6.1796875" style="100" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="100"/>
+    <col min="29" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -10042,6 +10091,8 @@
       <c r="Q3" s="16"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
@@ -10070,6 +10121,8 @@
       <c r="V4" s="19"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
@@ -10098,6 +10151,8 @@
       <c r="V5" s="19"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
@@ -10126,149 +10181,151 @@
       <c r="V6" s="19"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="A7" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="103"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="120" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10319,32 +10376,32 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="99">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="102">
+      <c r="Y11" s="124">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="127">
         <v>6060</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="100">
         <f>SUM(E12:T12)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10382,7 +10439,7 @@
         <v>2</v>
       </c>
       <c r="Q12" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="26" t="s">
         <v>13</v>
@@ -10393,18 +10450,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="127"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10453,24 +10510,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="99">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="102"/>
-      <c r="AB13" s="2">
+      <c r="Y13" s="124">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="127"/>
+      <c r="AB13" s="100">
         <f>AA11+AA14</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -10519,13 +10576,13 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="2">
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="100">
         <f>SUM(E14:T14)</f>
         <v>22</v>
       </c>
@@ -10582,7 +10639,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -10608,30 +10665,35 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="103" t="s">
+    <row r="18" spans="1:28" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="150">
+      <c r="C18" s="128"/>
+      <c r="D18" s="154">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
       <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10647,14 +10709,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10688,11 +10747,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10782,142 +10841,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
+      <c r="A5" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="str">
+      <c r="A6" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="125" t="s">
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="125" t="s">
+      <c r="U7" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="125" t="s">
+      <c r="V7" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="125" t="s">
+      <c r="W7" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="125" t="s">
+      <c r="X7" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="111" t="s">
+      <c r="Y7" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="111"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="103"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="108">
+      <c r="A9" s="118">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="148" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10968,29 +11027,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="99">
+      <c r="T9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="124">
         <v>9</v>
       </c>
-      <c r="X9" s="99">
+      <c r="X9" s="124">
         <v>20</v>
       </c>
-      <c r="Y9" s="102">
+      <c r="Y9" s="127">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="138"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="26" t="s">
         <v>88</v>
       </c>
@@ -11039,21 +11098,21 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="102"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="127"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="138"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="149"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -11102,20 +11161,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="99">
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="124">
         <f>Z10+Z12</f>
         <v>88</v>
       </c>
-      <c r="Y11" s="102"/>
+      <c r="Y11" s="127"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="139"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
@@ -11164,25 +11223,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="127"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108">
-        <v>2</v>
-      </c>
-      <c r="B13" s="109" t="s">
+      <c r="A13" s="118">
+        <v>2</v>
+      </c>
+      <c r="B13" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="110" t="str">
+      <c r="C13" s="120" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -11234,22 +11293,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="99">
+      <c r="T13" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="124">
         <v>20</v>
       </c>
-      <c r="Y13" s="102">
+      <c r="Y13" s="127">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -11261,9 +11320,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11312,12 +11371,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="127"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>71</v>
@@ -11328,9 +11387,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11379,20 +11438,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="99">
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="124">
         <f>Z14+Z16</f>
         <v>159</v>
       </c>
-      <c r="Y15" s="102"/>
+      <c r="Y15" s="127"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="26" t="s">
         <v>13</v>
       </c>
@@ -11441,12 +11500,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="127"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>88</v>
@@ -11463,7 +11522,7 @@
       <c r="B17" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="163" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11514,7 +11573,7 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="105" t="s">
+      <c r="T17" s="121" t="s">
         <v>8</v>
       </c>
       <c r="U17" s="158" t="s">
@@ -11529,14 +11588,14 @@
       <c r="X17" s="155">
         <v>20</v>
       </c>
-      <c r="Y17" s="102">
+      <c r="Y17" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="161"/>
       <c r="B18" s="162"/>
-      <c r="C18" s="154"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -11585,12 +11644,12 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="106"/>
+      <c r="T18" s="122"/>
       <c r="U18" s="159"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="102"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="127"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>35.5</v>
@@ -11599,7 +11658,7 @@
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="161"/>
       <c r="B19" s="162"/>
-      <c r="C19" s="154"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11648,20 +11707,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="106"/>
+      <c r="T19" s="122"/>
       <c r="U19" s="159"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="99">
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="124">
         <f>Z18+Z20</f>
         <v>79.5</v>
       </c>
-      <c r="Y19" s="102"/>
+      <c r="Y19" s="127"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="161"/>
       <c r="B20" s="162"/>
-      <c r="C20" s="154"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -11710,25 +11769,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="107"/>
+      <c r="T20" s="123"/>
       <c r="U20" s="160"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="102"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="157"/>
+      <c r="X20" s="126"/>
+      <c r="Y20" s="127"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="131">
+      <c r="A21" s="132">
         <v>4</v>
       </c>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="163" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11779,29 +11838,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="99">
+      <c r="T21" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="124">
         <v>20</v>
       </c>
-      <c r="Y21" s="102">
+      <c r="Y21" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="132"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="154"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="163"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11850,21 +11909,21 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="102"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="127"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="132"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="154"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="163"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11913,20 +11972,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="99">
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="124">
         <f>Z22+Z24</f>
         <v>159</v>
       </c>
-      <c r="Y23" s="102"/>
+      <c r="Y23" s="127"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="133"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="163"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
@@ -11975,25 +12034,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="102"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="127"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="131">
+      <c r="A25" s="132">
         <v>4</v>
       </c>
-      <c r="B25" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="154" t="s">
+      <c r="B25" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="163" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -12044,29 +12103,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="99">
+      <c r="T25" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="124">
         <v>20</v>
       </c>
-      <c r="Y25" s="102">
+      <c r="Y25" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="132"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="154"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -12115,21 +12174,21 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="102"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="127"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="132"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="154"/>
+      <c r="A27" s="133"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="163"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -12178,20 +12237,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="99">
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="124">
         <f>Z26+Z28</f>
         <v>159</v>
       </c>
-      <c r="Y27" s="102"/>
+      <c r="Y27" s="127"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="133"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="26" t="s">
         <v>13</v>
       </c>
@@ -12240,12 +12299,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="102"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="126"/>
+      <c r="X28" s="126"/>
+      <c r="Y28" s="127"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -12285,10 +12344,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="103"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -12449,6 +12508,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12465,54 +12572,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12546,11 +12605,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12664,141 +12723,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
+      <c r="A6" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="125" t="s">
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="125" t="s">
+      <c r="U8" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="125" t="s">
+      <c r="V8" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="125" t="s">
+      <c r="W8" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="125" t="s">
+      <c r="X8" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="111" t="s">
+      <c r="Y8" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="111"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="103"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108">
+      <c r="A10" s="118">
         <v>1</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="120" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12849,29 +12908,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="102">
+      <c r="T10" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="127">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12920,17 +12979,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="102"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="127"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12979,19 +13038,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="102"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="127"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -13040,12 +13099,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="102"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="127"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -13060,10 +13119,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13130,16 +13189,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -13154,6 +13203,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13318,63 +13377,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
+      <c r="A6" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -13404,94 +13463,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="103" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="103"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="118">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="118">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="120" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13542,28 +13601,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="99">
+      <c r="U11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="124">
         <v>20</v>
       </c>
-      <c r="Z11" s="163">
+      <c r="Z11" s="167">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13612,18 +13671,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="163"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="167"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13672,20 +13731,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="99">
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="152"/>
+      <c r="Y13" s="124">
         <v>160</v>
       </c>
-      <c r="Z13" s="163"/>
+      <c r="Z13" s="167"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13734,18 +13793,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="163"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="167"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13809,18 +13868,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13834,6 +13881,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="106">
   <si>
     <t>Посада</t>
   </si>
@@ -1501,20 +1501,20 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.08984375" style="2"/>
-    <col min="27" max="27" width="6.08984375" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="2"/>
+    <col min="27" max="27" width="6.109375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="W1" s="105"/>
       <c r="X1" s="105"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
         <v>99</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="W2" s="106"/>
       <c r="X2" s="106"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -1582,7 +1582,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="93"/>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -1610,7 +1610,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
@@ -1638,7 +1638,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
@@ -1666,7 +1666,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="107"/>
     </row>
-    <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -1723,7 +1723,7 @@
       <c r="W8" s="108"/>
       <c r="X8" s="108"/>
     </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -1799,7 +1799,7 @@
       <c r="Y10" s="117"/>
       <c r="Z10" s="103"/>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="119"/>
@@ -1939,7 +1939,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="119"/>
@@ -2006,7 +2006,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="119"/>
@@ -2070,7 +2070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -2096,7 +2096,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -2122,7 +2122,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -2148,7 +2148,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="92" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="128" t="s">
         <v>12</v>
       </c>
@@ -2245,17 +2245,17 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>30</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>44</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -2366,7 +2366,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -2393,7 +2393,7 @@
       <c r="X5" s="65"/>
       <c r="Y5" s="65"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="107" t="s">
         <v>2</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="X6" s="107"/>
       <c r="Y6" s="107"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -2452,7 +2452,7 @@
       <c r="X7" s="107"/>
       <c r="Y7" s="107"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -2479,7 +2479,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -2557,7 +2557,7 @@
       <c r="Y10" s="117"/>
       <c r="Z10" s="103"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="119"/>
@@ -2695,7 +2695,7 @@
       <c r="Y12" s="126"/>
       <c r="Z12" s="167"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="119"/>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="Z13" s="167"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="119"/>
@@ -2817,7 +2817,7 @@
       <c r="Y14" s="126"/>
       <c r="Z14" s="167"/>
     </row>
-    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="128" t="s">
         <v>12</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="51" t="s">
         <v>72</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>66</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>67</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>68</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>69</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>70</v>
       </c>
@@ -2925,16 +2925,16 @@
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.1796875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>54</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>44</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3044,7 +3044,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3070,7 +3070,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3096,7 +3096,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="107"/>
     </row>
-    <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -3153,7 +3153,7 @@
       <c r="W8" s="107"/>
       <c r="X8" s="107"/>
     </row>
-    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -3227,7 +3227,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="103"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="119"/>
@@ -3365,7 +3365,7 @@
       <c r="X12" s="125"/>
       <c r="Y12" s="125"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="119"/>
@@ -3430,7 +3430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="119"/>
@@ -3493,7 +3493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -3519,7 +3519,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -3545,7 +3545,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="144" t="s">
         <v>12</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>72</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>66</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>67</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>68</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>69</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="51" t="s">
         <v>70</v>
       </c>
@@ -3651,16 +3651,16 @@
       <selection activeCell="X13" sqref="X13:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.1796875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>61</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>44</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3770,7 +3770,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3796,7 +3796,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3822,7 +3822,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="107"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -3879,7 +3879,7 @@
       <c r="W8" s="107"/>
       <c r="X8" s="107"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -3953,7 +3953,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="103"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="119"/>
@@ -4091,7 +4091,7 @@
       <c r="X12" s="126"/>
       <c r="Y12" s="142"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="119"/>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="Y13" s="142"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="119"/>
@@ -4216,7 +4216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -4242,7 +4242,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -4268,7 +4268,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="144" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>72</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>66</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>67</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>68</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>69</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="51" t="s">
         <v>70</v>
       </c>
@@ -4375,18 +4375,18 @@
       <selection activeCell="Y13" sqref="Y13:Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.1796875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4455,7 +4455,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4483,7 +4483,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4509,7 +4509,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4535,7 +4535,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="Y7" s="107"/>
       <c r="Z7" s="107"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -4596,7 +4596,7 @@
       <c r="Y8" s="108"/>
       <c r="Z8" s="108"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -4674,7 +4674,7 @@
       <c r="Y10" s="117"/>
       <c r="Z10" s="103"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="130"/>
@@ -4812,7 +4812,7 @@
       <c r="Y12" s="126"/>
       <c r="Z12" s="127"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="130"/>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="Z13" s="127"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="130"/>
@@ -4934,7 +4934,7 @@
       <c r="Y14" s="126"/>
       <c r="Z14" s="127"/>
     </row>
-    <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="128" t="s">
         <v>12</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>72</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>66</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>67</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>68</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>69</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>70</v>
       </c>
@@ -5058,25 +5058,25 @@
   <dimension ref="A2:AA44"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Y11" sqref="Y11:Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="13" width="4.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="13" width="4.21875" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.1796875" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.21875" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="104" t="s">
         <v>9</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -5142,7 +5142,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -5169,7 +5169,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -5194,7 +5194,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="V7" s="107"/>
       <c r="W7" s="107"/>
     </row>
-    <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="107" t="s">
         <v>102</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="V8" s="107"/>
       <c r="W8" s="107"/>
     </row>
-    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="109"/>
       <c r="C10" s="109"/>
@@ -5322,7 +5322,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="103"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
@@ -5460,7 +5460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="119"/>
       <c r="C13" s="120"/>
@@ -5518,62 +5518,62 @@
       <c r="W13" s="23"/>
       <c r="X13" s="124">
         <f>Z12+Z14</f>
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="127"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
       <c r="D14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="26">
-        <v>8</v>
-      </c>
-      <c r="F14" s="26">
-        <v>8</v>
-      </c>
-      <c r="G14" s="26">
-        <v>8</v>
-      </c>
-      <c r="H14" s="26">
-        <v>8</v>
-      </c>
-      <c r="I14" s="26">
-        <v>8</v>
-      </c>
-      <c r="J14" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="26">
-        <v>8</v>
-      </c>
-      <c r="M14" s="26">
-        <v>8</v>
-      </c>
-      <c r="N14" s="26">
-        <v>8</v>
-      </c>
-      <c r="O14" s="26">
-        <v>8</v>
-      </c>
-      <c r="P14" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S14" s="29" t="s">
         <v>10</v>
@@ -5586,10 +5586,10 @@
       <c r="Y14" s="127"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="118">
         <v>2</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="118"/>
       <c r="B16" s="119"/>
       <c r="C16" s="120"/>
@@ -5731,10 +5731,10 @@
       </c>
       <c r="AA16" s="2">
         <f>Z17+Z15</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="118"/>
       <c r="B17" s="119"/>
       <c r="C17" s="120"/>
@@ -5792,62 +5792,62 @@
       <c r="W17" s="44"/>
       <c r="X17" s="124">
         <f>Z15+Z17</f>
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="Y17" s="127"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="118"/>
       <c r="B18" s="119"/>
       <c r="C18" s="120"/>
       <c r="D18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="26">
-        <v>8</v>
-      </c>
-      <c r="F18" s="26">
-        <v>8</v>
-      </c>
-      <c r="G18" s="26">
-        <v>8</v>
-      </c>
-      <c r="H18" s="26">
-        <v>8</v>
-      </c>
-      <c r="I18" s="26">
-        <v>8</v>
-      </c>
-      <c r="J18" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="26">
-        <v>8</v>
-      </c>
-      <c r="M18" s="26">
-        <v>8</v>
-      </c>
-      <c r="N18" s="26">
-        <v>8</v>
-      </c>
-      <c r="O18" s="26">
-        <v>8</v>
-      </c>
-      <c r="P18" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>10</v>
@@ -5859,7 +5859,7 @@
       <c r="X18" s="126"/>
       <c r="Y18" s="127"/>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="118">
         <v>3</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="118"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120"/>
@@ -5997,7 +5997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="118"/>
       <c r="B21" s="119"/>
       <c r="C21" s="120"/>
@@ -6055,62 +6055,62 @@
       <c r="W21" s="55"/>
       <c r="X21" s="124">
         <f>Z20+Z22</f>
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="Y21" s="127"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="118"/>
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
       <c r="D22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="26">
-        <v>8</v>
-      </c>
-      <c r="F22" s="26">
-        <v>8</v>
-      </c>
-      <c r="G22" s="26">
-        <v>8</v>
-      </c>
-      <c r="H22" s="26">
-        <v>8</v>
-      </c>
-      <c r="I22" s="26">
-        <v>8</v>
-      </c>
-      <c r="J22" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="26">
-        <v>8</v>
-      </c>
-      <c r="M22" s="26">
-        <v>8</v>
-      </c>
-      <c r="N22" s="26">
-        <v>8</v>
-      </c>
-      <c r="O22" s="26">
-        <v>8</v>
-      </c>
-      <c r="P22" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S22" s="29" t="s">
         <v>10</v>
@@ -6123,10 +6123,10 @@
       <c r="Y22" s="127"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="118">
         <v>4</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="118"/>
       <c r="B24" s="119"/>
       <c r="C24" s="120"/>
@@ -6264,7 +6264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="118"/>
       <c r="B25" s="119"/>
       <c r="C25" s="120"/>
@@ -6330,7 +6330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="118"/>
       <c r="B26" s="119"/>
       <c r="C26" s="120"/>
@@ -6393,7 +6393,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="118">
         <v>5</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118"/>
       <c r="B28" s="130"/>
       <c r="C28" s="131"/>
@@ -6529,8 +6529,16 @@
       <c r="W28" s="55"/>
       <c r="X28" s="126"/>
       <c r="Y28" s="127"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z28" s="2">
+        <f>SUM(D28:S28)</f>
+        <v>71</v>
+      </c>
+      <c r="AA28" s="2">
+        <f>Z28+Z30</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="118"/>
       <c r="B29" s="130"/>
       <c r="C29" s="131"/>
@@ -6587,11 +6595,12 @@
       <c r="V29" s="125"/>
       <c r="W29" s="55"/>
       <c r="X29" s="124">
-        <v>32</v>
+        <f>Z28+Z30</f>
+        <v>159</v>
       </c>
       <c r="Y29" s="127"/>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="118"/>
       <c r="B30" s="130"/>
       <c r="C30" s="131"/>
@@ -6649,8 +6658,12 @@
       <c r="W30" s="54"/>
       <c r="X30" s="126"/>
       <c r="Y30" s="127"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Z30" s="2">
+        <f>SUM(D30:S30)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="118">
         <v>6</v>
       </c>
@@ -6725,7 +6738,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="118"/>
       <c r="B32" s="119"/>
       <c r="C32" s="120"/>
@@ -6792,7 +6805,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="118"/>
       <c r="B33" s="119"/>
       <c r="C33" s="120"/>
@@ -6854,7 +6867,7 @@
       </c>
       <c r="Y33" s="127"/>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="118"/>
       <c r="B34" s="119"/>
       <c r="C34" s="120"/>
@@ -6917,19 +6930,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="31"/>
       <c r="C35" s="33"/>
       <c r="X35" s="74">
         <f>X33+X29+X25+X21+X17+X13</f>
-        <v>827</v>
+        <v>690</v>
       </c>
       <c r="Y35" s="34">
         <f>Y11+Y15+Y19+Y23+Y27+Y31</f>
         <v>36600</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="128" t="s">
         <v>12</v>
       </c>
@@ -6941,7 +6954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="51" t="s">
         <v>72</v>
       </c>
@@ -6949,7 +6962,7 @@
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
     </row>
-    <row r="39" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39" s="51" t="s">
         <v>66</v>
       </c>
@@ -6957,7 +6970,7 @@
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="51" t="s">
         <v>67</v>
       </c>
@@ -6965,7 +6978,7 @@
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="51" t="s">
         <v>68</v>
       </c>
@@ -6973,7 +6986,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="51" t="s">
         <v>69</v>
       </c>
@@ -6981,7 +6994,7 @@
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
     </row>
-    <row r="43" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43" s="51" t="s">
         <v>70</v>
       </c>
@@ -7080,22 +7093,22 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D18"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.1796875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>9</v>
       </c>
@@ -7113,7 +7126,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>22</v>
       </c>
@@ -7144,7 +7157,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>44</v>
       </c>
@@ -7177,7 +7190,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -7206,7 +7219,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
@@ -7233,7 +7246,7 @@
       <c r="X5" s="77"/>
       <c r="Y5" s="77"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="107" t="s">
         <v>2</v>
       </c>
@@ -7262,7 +7275,7 @@
       <c r="X6" s="107"/>
       <c r="Y6" s="107"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -7292,7 +7305,7 @@
       <c r="X7" s="107"/>
       <c r="Y7" s="107"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
@@ -7319,7 +7332,7 @@
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -7367,7 +7380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="123"/>
       <c r="C10" s="109"/>
@@ -7395,7 +7408,7 @@
       <c r="Y10" s="117"/>
       <c r="Z10" s="103"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="132">
         <v>1</v>
       </c>
@@ -7465,7 +7478,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="133"/>
       <c r="B12" s="122"/>
       <c r="C12" s="122"/>
@@ -7525,7 +7538,7 @@
       <c r="Y12" s="126"/>
       <c r="Z12" s="139"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="133"/>
       <c r="B13" s="122"/>
       <c r="C13" s="122"/>
@@ -7587,7 +7600,7 @@
       </c>
       <c r="Z13" s="139"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="134"/>
       <c r="B14" s="123"/>
       <c r="C14" s="123"/>
@@ -7647,7 +7660,7 @@
       <c r="Y14" s="126"/>
       <c r="Z14" s="140"/>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="132">
         <v>2</v>
       </c>
@@ -7717,7 +7730,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133"/>
       <c r="B16" s="122"/>
       <c r="C16" s="122"/>
@@ -7777,7 +7790,7 @@
       <c r="Y16" s="126"/>
       <c r="Z16" s="139"/>
     </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="133"/>
       <c r="B17" s="122"/>
       <c r="C17" s="122"/>
@@ -7839,7 +7852,7 @@
       </c>
       <c r="Z17" s="139"/>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="134"/>
       <c r="B18" s="123"/>
       <c r="C18" s="123"/>
@@ -7899,7 +7912,7 @@
       <c r="Y18" s="126"/>
       <c r="Z18" s="140"/>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7927,7 +7940,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="88"/>
     </row>
-    <row r="20" spans="1:26" s="97" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="128" t="s">
         <v>12</v>
       </c>
@@ -7940,7 +7953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>72</v>
       </c>
@@ -7948,7 +7961,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>66</v>
       </c>
@@ -7956,7 +7969,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="51" t="s">
         <v>67</v>
       </c>
@@ -7964,7 +7977,7 @@
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D25" s="51" t="s">
         <v>68</v>
       </c>
@@ -7972,7 +7985,7 @@
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
     </row>
-    <row r="26" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D26" s="51" t="s">
         <v>69</v>
       </c>
@@ -7980,7 +7993,7 @@
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D27" s="51" t="s">
         <v>70</v>
       </c>
@@ -8047,18 +8060,18 @@
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.1796875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="21" width="4.1796875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.81640625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="21" width="4.21875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="24" width="7" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="25" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -8070,7 +8083,7 @@
       </c>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
@@ -8100,7 +8113,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -8128,7 +8141,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -8156,7 +8169,7 @@
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -8182,7 +8195,7 @@
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -8208,7 +8221,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -8236,7 +8249,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="107"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -8265,7 +8278,7 @@
       <c r="W8" s="107"/>
       <c r="X8" s="107"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -8312,7 +8325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -8339,7 +8352,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="103"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -8420,7 +8433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="133"/>
       <c r="C12" s="146"/>
@@ -8479,7 +8492,7 @@
       <c r="X12" s="126"/>
       <c r="Y12" s="142"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="133"/>
       <c r="C13" s="146"/>
@@ -8541,7 +8554,7 @@
       </c>
       <c r="Y13" s="142"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="134"/>
       <c r="C14" s="147"/>
@@ -8604,7 +8617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -8630,7 +8643,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="144" t="s">
         <v>12</v>
@@ -8659,7 +8672,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>72</v>
       </c>
@@ -8667,7 +8680,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>66</v>
       </c>
@@ -8675,7 +8688,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>67</v>
       </c>
@@ -8683,7 +8696,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>68</v>
       </c>
@@ -8691,7 +8704,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>69</v>
       </c>
@@ -8699,7 +8712,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>70</v>
       </c>
@@ -8754,21 +8767,21 @@
       <selection activeCell="D11" sqref="D11:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="2" customWidth="1"/>
-    <col min="4" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="22" width="5.453125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.81640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.36328125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.08984375" style="100"/>
-    <col min="27" max="16384" width="9.08984375" style="2"/>
+    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="22" width="5.44140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" style="100"/>
+    <col min="27" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -8780,7 +8793,7 @@
       <c r="O1" s="16"/>
       <c r="Z1" s="99"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>91</v>
       </c>
@@ -8810,7 +8823,7 @@
       <c r="X2" s="81"/>
       <c r="Z2" s="99"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>92</v>
       </c>
@@ -8840,7 +8853,7 @@
       <c r="X3" s="81"/>
       <c r="Z3" s="99"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -8868,7 +8881,7 @@
       <c r="X4" s="81"/>
       <c r="Z4" s="99"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="81"/>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -8895,7 +8908,7 @@
       <c r="X5" s="81"/>
       <c r="Z5" s="99"/>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="81"/>
@@ -8922,7 +8935,7 @@
       <c r="X6" s="81"/>
       <c r="Z6" s="99"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -8950,7 +8963,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="79"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -8980,7 +8993,7 @@
       <c r="X8" s="108"/>
       <c r="Y8" s="108"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -9027,7 +9040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="109"/>
       <c r="C10" s="109"/>
@@ -9054,7 +9067,7 @@
       <c r="X10" s="117"/>
       <c r="Y10" s="103"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -9130,7 +9143,7 @@
       </c>
       <c r="Z11" s="101"/>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
@@ -9193,7 +9206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="119"/>
       <c r="C13" s="120"/>
@@ -9255,7 +9268,7 @@
       </c>
       <c r="Y13" s="127"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
@@ -9318,7 +9331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="118">
         <v>2</v>
       </c>
@@ -9394,7 +9407,7 @@
       </c>
       <c r="Z15" s="101"/>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="118"/>
       <c r="B16" s="119"/>
       <c r="C16" s="120"/>
@@ -9457,7 +9470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="118"/>
       <c r="B17" s="119"/>
       <c r="C17" s="120"/>
@@ -9519,7 +9532,7 @@
       </c>
       <c r="Y17" s="127"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="118"/>
       <c r="B18" s="119"/>
       <c r="C18" s="120"/>
@@ -9582,7 +9595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="132">
         <v>3</v>
       </c>
@@ -9658,7 +9671,7 @@
       </c>
       <c r="Z19" s="101"/>
     </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="133"/>
       <c r="B20" s="146"/>
       <c r="C20" s="149"/>
@@ -9721,7 +9734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="133"/>
       <c r="B21" s="146"/>
       <c r="C21" s="149"/>
@@ -9783,7 +9796,7 @@
       </c>
       <c r="Y21" s="142"/>
     </row>
-    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="134"/>
       <c r="B22" s="147"/>
       <c r="C22" s="150"/>
@@ -9846,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="85" t="s">
         <v>12</v>
       </c>
@@ -9877,7 +9890,7 @@
       <c r="V24" s="78"/>
       <c r="W24" s="78"/>
     </row>
-    <row r="25" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="80"/>
       <c r="C25" s="82"/>
       <c r="D25" s="78"/>
@@ -9901,7 +9914,7 @@
       <c r="V25" s="78"/>
       <c r="W25" s="78"/>
     </row>
-    <row r="26" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="51" t="s">
         <v>66</v>
       </c>
@@ -9909,7 +9922,7 @@
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="51" t="s">
         <v>67</v>
       </c>
@@ -9917,7 +9930,7 @@
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
     </row>
-    <row r="28" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="51" t="s">
         <v>68</v>
       </c>
@@ -9925,7 +9938,7 @@
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
     </row>
-    <row r="29" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="51" t="s">
         <v>69</v>
       </c>
@@ -9934,7 +9947,7 @@
       <c r="F29" s="52"/>
       <c r="P29" s="83"/>
     </row>
-    <row r="30" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="51" t="s">
         <v>70</v>
       </c>
@@ -10007,20 +10020,20 @@
       <selection activeCell="A7" sqref="A7:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="27" width="6.1796875" style="100" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" style="100"/>
-    <col min="29" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.21875" style="2"/>
+    <col min="27" max="27" width="6.21875" style="100" customWidth="1"/>
+    <col min="28" max="28" width="9.21875" style="100"/>
+    <col min="29" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -10039,7 +10052,7 @@
       <c r="AA1" s="99"/>
       <c r="AB1" s="99"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
         <v>58</v>
       </c>
@@ -10069,7 +10082,7 @@
       <c r="AA2" s="99"/>
       <c r="AB2" s="99"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -10094,7 +10107,7 @@
       <c r="AA3" s="99"/>
       <c r="AB3" s="99"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -10124,7 +10137,7 @@
       <c r="AA4" s="99"/>
       <c r="AB4" s="99"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -10154,7 +10167,7 @@
       <c r="AA5" s="99"/>
       <c r="AB5" s="99"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -10184,7 +10197,7 @@
       <c r="AA6" s="99"/>
       <c r="AB6" s="99"/>
     </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>2</v>
       </c>
@@ -10212,7 +10225,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="107"/>
     </row>
-    <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -10241,7 +10254,7 @@
       <c r="W8" s="108"/>
       <c r="X8" s="108"/>
     </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -10289,7 +10302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -10317,7 +10330,7 @@
       <c r="Y10" s="117"/>
       <c r="Z10" s="103"/>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -10397,7 +10410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="119"/>
@@ -10457,7 +10470,7 @@
       <c r="Y12" s="126"/>
       <c r="Z12" s="127"/>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="119"/>
@@ -10523,7 +10536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="119"/>
@@ -10587,7 +10600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -10613,7 +10626,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -10639,7 +10652,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -10665,7 +10678,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:28" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="128" t="s">
         <v>12</v>
       </c>
@@ -10726,27 +10739,27 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13:W16"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.36328125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.08984375" style="2"/>
-    <col min="25" max="25" width="10.90625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.33203125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="10.88671875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -10757,7 +10770,7 @@
       </c>
       <c r="R1" s="16"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>24</v>
       </c>
@@ -10786,7 +10799,7 @@
       <c r="V2" s="95"/>
       <c r="W2" s="95"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="95"/>
       <c r="B3" s="95"/>
       <c r="C3" s="95"/>
@@ -10813,7 +10826,7 @@
       <c r="V3" s="95"/>
       <c r="W3" s="95"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
@@ -10840,7 +10853,7 @@
       <c r="V4" s="95"/>
       <c r="W4" s="95"/>
     </row>
-    <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="107" t="s">
         <v>2</v>
       </c>
@@ -10867,7 +10880,7 @@
       <c r="V5" s="107"/>
       <c r="W5" s="107"/>
     </row>
-    <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -10895,7 +10908,7 @@
       <c r="V6" s="107"/>
       <c r="W6" s="107"/>
     </row>
-    <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="109" t="s">
         <v>3</v>
       </c>
@@ -10942,7 +10955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109"/>
       <c r="B8" s="109"/>
       <c r="C8" s="109"/>
@@ -10969,7 +10982,7 @@
       <c r="X8" s="117"/>
       <c r="Y8" s="103"/>
     </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="118">
         <v>1</v>
       </c>
@@ -11036,8 +11049,8 @@
       <c r="V9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="124">
-        <v>9</v>
+      <c r="W9" s="124" t="s">
+        <v>8</v>
       </c>
       <c r="X9" s="124">
         <v>20</v>
@@ -11046,12 +11059,12 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="118"/>
       <c r="B10" s="119"/>
       <c r="C10" s="149"/>
-      <c r="D10" s="26" t="s">
-        <v>88</v>
+      <c r="D10" s="26">
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>13</v>
@@ -11059,20 +11072,20 @@
       <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>88</v>
+      <c r="G10" s="26">
+        <v>8</v>
+      </c>
+      <c r="H10" s="26">
+        <v>8</v>
+      </c>
+      <c r="I10" s="26">
+        <v>8</v>
+      </c>
+      <c r="J10" s="26">
+        <v>8</v>
+      </c>
+      <c r="K10" s="26">
+        <v>8</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>13</v>
@@ -11080,14 +11093,14 @@
       <c r="M10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>88</v>
+      <c r="N10" s="26">
+        <v>8</v>
+      </c>
+      <c r="O10" s="26">
+        <v>8</v>
+      </c>
+      <c r="P10" s="26">
+        <v>7</v>
       </c>
       <c r="Q10" s="26" t="s">
         <v>13</v>
@@ -11106,10 +11119,10 @@
       <c r="Y10" s="127"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118"/>
       <c r="B11" s="119"/>
       <c r="C11" s="149"/>
@@ -11167,52 +11180,52 @@
       <c r="W11" s="125"/>
       <c r="X11" s="124">
         <f>Z10+Z12</f>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Y11" s="127"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="119"/>
       <c r="C12" s="150"/>
       <c r="D12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="26">
-        <v>8</v>
-      </c>
-      <c r="F12" s="26">
-        <v>8</v>
-      </c>
-      <c r="G12" s="26">
-        <v>8</v>
-      </c>
-      <c r="H12" s="26">
-        <v>8</v>
-      </c>
-      <c r="I12" s="26">
-        <v>8</v>
-      </c>
-      <c r="J12" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="26">
-        <v>8</v>
-      </c>
-      <c r="M12" s="26">
-        <v>8</v>
-      </c>
-      <c r="N12" s="26">
-        <v>8</v>
-      </c>
-      <c r="O12" s="26">
-        <v>8</v>
-      </c>
-      <c r="P12" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q12" s="26" t="s">
         <v>13</v>
@@ -11231,10 +11244,10 @@
       <c r="Y12" s="127"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118">
         <v>2</v>
       </c>
@@ -11319,7 +11332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
@@ -11383,10 +11396,10 @@
       </c>
       <c r="AB14" s="2">
         <f>AA13+AA16</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="118"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
@@ -11444,52 +11457,52 @@
       <c r="W15" s="125"/>
       <c r="X15" s="124">
         <f>Z14+Z16</f>
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="Y15" s="127"/>
     </row>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="118"/>
       <c r="B16" s="119"/>
       <c r="C16" s="120"/>
       <c r="D16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="26">
-        <v>8</v>
-      </c>
-      <c r="F16" s="26">
-        <v>8</v>
-      </c>
-      <c r="G16" s="26">
-        <v>8</v>
-      </c>
-      <c r="H16" s="26">
-        <v>8</v>
-      </c>
-      <c r="I16" s="26">
-        <v>8</v>
-      </c>
-      <c r="J16" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="26">
-        <v>8</v>
-      </c>
-      <c r="M16" s="26">
-        <v>8</v>
-      </c>
-      <c r="N16" s="26">
-        <v>8</v>
-      </c>
-      <c r="O16" s="26">
-        <v>8</v>
-      </c>
-      <c r="P16" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q16" s="26" t="s">
         <v>13</v>
@@ -11508,14 +11521,14 @@
       <c r="Y16" s="127"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="2">
         <f>SUM(E16:T16)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="161">
         <v>3</v>
       </c>
@@ -11592,54 +11605,54 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="161"/>
       <c r="B18" s="162"/>
       <c r="C18" s="163"/>
-      <c r="D18" s="26">
-        <v>4</v>
+      <c r="D18" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="26">
-        <v>4</v>
-      </c>
-      <c r="H18" s="26">
-        <v>4</v>
-      </c>
-      <c r="I18" s="26">
-        <v>4</v>
-      </c>
-      <c r="J18" s="26">
-        <v>4</v>
-      </c>
-      <c r="K18" s="26">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="26">
-        <v>4</v>
-      </c>
-      <c r="O18" s="26">
-        <v>4</v>
-      </c>
-      <c r="P18" s="26">
-        <v>3.5</v>
+        <v>88</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S18" s="26" t="s">
         <v>13</v>
@@ -11652,10 +11665,10 @@
       <c r="Y18" s="127"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="161"/>
       <c r="B19" s="162"/>
       <c r="C19" s="163"/>
@@ -11713,11 +11726,11 @@
       <c r="W19" s="156"/>
       <c r="X19" s="124">
         <f>Z18+Z20</f>
-        <v>79.5</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="127"/>
     </row>
-    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="161"/>
       <c r="B20" s="162"/>
       <c r="C20" s="163"/>
@@ -11780,7 +11793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="132">
         <v>4</v>
       </c>
@@ -11857,7 +11870,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="133"/>
       <c r="B22" s="165"/>
       <c r="C22" s="163"/>
@@ -11920,7 +11933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="133"/>
       <c r="B23" s="165"/>
       <c r="C23" s="163"/>
@@ -11982,7 +11995,7 @@
       </c>
       <c r="Y23" s="127"/>
     </row>
-    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="134"/>
       <c r="B24" s="166"/>
       <c r="C24" s="163"/>
@@ -12045,7 +12058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="132">
         <v>4</v>
       </c>
@@ -12122,7 +12135,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="133"/>
       <c r="B26" s="165"/>
       <c r="C26" s="163"/>
@@ -12185,7 +12198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="133"/>
       <c r="B27" s="165"/>
       <c r="C27" s="163"/>
@@ -12247,7 +12260,7 @@
       </c>
       <c r="Y27" s="127"/>
     </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="134"/>
       <c r="B28" s="166"/>
       <c r="C28" s="163"/>
@@ -12310,7 +12323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="21"/>
       <c r="C29" s="20"/>
@@ -12336,14 +12349,14 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9">
         <f>SUM(X11+X15+X19+X23)</f>
-        <v>485.5</v>
+        <v>345</v>
       </c>
       <c r="Y29" s="35">
         <f>SUM(Y9:Y24)</f>
         <v>24720</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="128" t="s">
         <v>12</v>
       </c>
@@ -12382,10 +12395,10 @@
       <c r="AC30" s="94"/>
       <c r="AD30" s="94"/>
     </row>
-    <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="20"/>
     </row>
-    <row r="32" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="51" t="s">
         <v>76</v>
       </c>
@@ -12393,7 +12406,7 @@
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
     </row>
-    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="51" t="s">
         <v>66</v>
       </c>
@@ -12401,7 +12414,7 @@
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="51" t="s">
         <v>67</v>
       </c>
@@ -12409,7 +12422,7 @@
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
     </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="51" t="s">
         <v>68</v>
       </c>
@@ -12417,7 +12430,7 @@
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
     </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="51" t="s">
         <v>69</v>
       </c>
@@ -12425,7 +12438,7 @@
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
     </row>
-    <row r="37" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" s="51" t="s">
         <v>70</v>
       </c>
@@ -12433,7 +12446,7 @@
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
     </row>
-    <row r="38" spans="1:30" s="94" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="94" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="51" t="s">
@@ -12467,37 +12480,37 @@
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
     </row>
-    <row r="40" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="51"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41"/>
       <c r="D41" s="51"/>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
     </row>
-    <row r="43" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
     </row>
-    <row r="44" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C44"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
     </row>
-    <row r="45" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C45"/>
       <c r="D45" s="51"/>
       <c r="E45" s="52"/>
@@ -12587,24 +12600,24 @@
       <selection activeCell="A7" sqref="A7:W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.21875" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.1796875" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.21875" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>9</v>
       </c>
@@ -12614,7 +12627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>83</v>
       </c>
@@ -12643,7 +12656,7 @@
       <c r="V2" s="70"/>
       <c r="W2" s="70"/>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -12670,7 +12683,7 @@
       <c r="V3" s="70"/>
       <c r="W3" s="70"/>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -12697,7 +12710,7 @@
       <c r="V4" s="70"/>
       <c r="W4" s="70"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -12722,7 +12735,7 @@
       <c r="V5" s="70"/>
       <c r="W5" s="70"/>
     </row>
-    <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="107" t="s">
         <v>2</v>
       </c>
@@ -12749,7 +12762,7 @@
       <c r="V6" s="107"/>
       <c r="W6" s="107"/>
     </row>
-    <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>89</v>
       </c>
@@ -12776,7 +12789,7 @@
       <c r="V7" s="107"/>
       <c r="W7" s="107"/>
     </row>
-    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109" t="s">
         <v>3</v>
       </c>
@@ -12823,7 +12836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109"/>
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
@@ -12850,7 +12863,7 @@
       <c r="X9" s="117"/>
       <c r="Y9" s="103"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="118">
         <v>1</v>
       </c>
@@ -12927,7 +12940,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118"/>
       <c r="B11" s="119"/>
       <c r="C11" s="120"/>
@@ -12986,7 +12999,7 @@
       <c r="X11" s="126"/>
       <c r="Y11" s="127"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
@@ -13047,7 +13060,7 @@
       </c>
       <c r="Y12" s="127"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="119"/>
       <c r="C13" s="120"/>
@@ -13106,7 +13119,7 @@
       <c r="X13" s="126"/>
       <c r="Y13" s="127"/>
     </row>
-    <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="68"/>
       <c r="C14" s="71"/>
       <c r="X14" s="73" t="e">
@@ -13118,7 +13131,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="128" t="s">
         <v>12</v>
       </c>
@@ -13131,7 +13144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
         <v>72</v>
       </c>
@@ -13139,7 +13152,7 @@
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
     </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="51" t="s">
         <v>66</v>
       </c>
@@ -13147,7 +13160,7 @@
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
     </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="51" t="s">
         <v>67</v>
       </c>
@@ -13155,7 +13168,7 @@
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
     </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="51" t="s">
         <v>68</v>
       </c>
@@ -13163,7 +13176,7 @@
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
     </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="51" t="s">
         <v>69</v>
       </c>
@@ -13171,7 +13184,7 @@
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="51" t="s">
         <v>70</v>
       </c>
@@ -13228,17 +13241,17 @@
       <selection activeCell="E12" sqref="E12:T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>9</v>
       </c>
@@ -13256,7 +13269,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>81</v>
       </c>
@@ -13287,7 +13300,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
@@ -13320,7 +13333,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -13349,7 +13362,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -13376,7 +13389,7 @@
       <c r="X5" s="60"/>
       <c r="Y5" s="60"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="107" t="s">
         <v>2</v>
       </c>
@@ -13405,7 +13418,7 @@
       <c r="X6" s="107"/>
       <c r="Y6" s="107"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
@@ -13435,7 +13448,7 @@
       <c r="X7" s="107"/>
       <c r="Y7" s="107"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -13462,7 +13475,7 @@
       <c r="X8" s="61"/>
       <c r="Y8" s="61"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>3</v>
       </c>
@@ -13512,7 +13525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="110"/>
       <c r="C10" s="109"/>
@@ -13540,7 +13553,7 @@
       <c r="Y10" s="117"/>
       <c r="Z10" s="103"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="118">
         <v>1</v>
       </c>
@@ -13618,7 +13631,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="118"/>
       <c r="B12" s="118"/>
       <c r="C12" s="119"/>
@@ -13678,7 +13691,7 @@
       <c r="Y12" s="126"/>
       <c r="Z12" s="167"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="118"/>
       <c r="B13" s="118"/>
       <c r="C13" s="119"/>
@@ -13740,7 +13753,7 @@
       </c>
       <c r="Z13" s="167"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="118"/>
       <c r="B14" s="118"/>
       <c r="C14" s="119"/>
@@ -13800,7 +13813,7 @@
       <c r="Y14" s="126"/>
       <c r="Z14" s="167"/>
     </row>
-    <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="128" t="s">
         <v>12</v>
       </c>
@@ -13813,7 +13826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="51" t="s">
         <v>72</v>
       </c>
@@ -13821,7 +13834,7 @@
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>66</v>
       </c>
@@ -13829,7 +13842,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>67</v>
       </c>
@@ -13837,7 +13850,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>68</v>
       </c>
@@ -13845,7 +13858,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>69</v>
       </c>
@@ -13853,7 +13866,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>70</v>
       </c>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 10 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="106">
   <si>
     <t>Посада</t>
   </si>
@@ -991,6 +991,42 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,48 +1072,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1096,13 +1105,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,15 +1135,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1147,15 +1147,27 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,18 +1181,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,49 +1515,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
@@ -1667,147 +1667,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1858,28 +1858,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>22</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="106">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1928,22 +1928,22 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="127"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="106"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>35.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1992,25 +1992,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <f>AB13</f>
         <v>79.5</v>
       </c>
-      <c r="Z13" s="127"/>
+      <c r="Z13" s="106"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>79.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -2059,12 +2059,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="106"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>44</v>
@@ -2149,18 +2149,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129">
+      <c r="C18" s="107"/>
+      <c r="D18" s="108">
         <f>Мельницький!C36</f>
         <v>44501</v>
       </c>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
       <c r="L18" s="92" t="s">
         <v>100</v>
       </c>
@@ -2202,18 +2202,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2230,6 +2218,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2394,63 +2394,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="63"/>
@@ -2480,94 +2480,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2618,17 +2618,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="151"/>
-      <c r="Y11" s="124" t="s">
+      <c r="Y11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="167">
@@ -2636,10 +2636,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2688,18 +2688,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="152"/>
-      <c r="Y12" s="126"/>
+      <c r="Y12" s="105"/>
       <c r="Z12" s="167"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2748,20 +2748,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="152"/>
-      <c r="Y13" s="124" t="s">
+      <c r="Y13" s="103" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="167"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2810,18 +2810,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="153"/>
-      <c r="Y14" s="126"/>
+      <c r="Y14" s="105"/>
       <c r="Z14" s="167"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -2885,18 +2885,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2910,6 +2898,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3097,147 +3097,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="str">
+      <c r="A8" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3288,29 +3288,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="103">
         <v>21</v>
       </c>
-      <c r="Y11" s="124"/>
+      <c r="Y11" s="103"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3359,17 +3359,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3418,23 +3418,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="125">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104">
         <v>42</v>
       </c>
-      <c r="Y13" s="125"/>
+      <c r="Y13" s="104"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3483,11 +3483,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3546,10 +3546,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="144"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -3613,6 +3613,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3622,20 +3636,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3823,147 +3823,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="str">
+      <c r="A8" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -4014,29 +4014,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="103">
         <v>21</v>
       </c>
-      <c r="Y11" s="141"/>
+      <c r="Y11" s="144"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4085,17 +4085,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="142"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="145"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4144,20 +4144,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="124">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="103">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="142"/>
+      <c r="Y13" s="145"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4206,11 +4206,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="143"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="146"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4269,10 +4269,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="144"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -4336,19 +4336,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4359,6 +4346,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4387,12 +4387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4536,149 +4536,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>2</v>
       </c>
       <c r="C11" s="130" t="s">
@@ -4735,26 +4735,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>21</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="106">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="130"/>
       <c r="D12" s="131"/>
       <c r="E12" s="26" t="s">
@@ -4805,16 +4805,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="127"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="106"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="130"/>
       <c r="D13" s="131"/>
       <c r="E13" s="27">
@@ -4865,18 +4865,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>42</v>
       </c>
-      <c r="Z13" s="127"/>
+      <c r="Z13" s="106"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="130"/>
       <c r="D14" s="131"/>
       <c r="E14" s="26">
@@ -4927,18 +4927,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="106"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5020,6 +5020,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5036,15 +5045,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5057,8 +5057,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11:Y14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="109" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5077,11 +5077,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5195,141 +5195,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="114" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5380,27 +5380,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="124" t="s">
+      <c r="T11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="124">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="127">
+      <c r="X11" s="103">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="106">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5444,26 +5444,26 @@
         <v>13</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="125"/>
+        <v>88</v>
+      </c>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5512,24 +5512,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="125"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="104"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="124">
+      <c r="X13" s="103">
         <f>Z12+Z14</f>
-        <v>71</v>
-      </c>
-      <c r="Y13" s="127"/>
+        <v>79</v>
+      </c>
+      <c r="Y13" s="106"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="26" t="s">
         <v>88</v>
       </c>
@@ -5566,37 +5566,37 @@
       <c r="O14" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="26" t="s">
-        <v>88</v>
+      <c r="P14" s="26">
+        <v>8</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="126"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="127"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118">
-        <v>2</v>
-      </c>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="112">
+        <v>2</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="114" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5647,20 +5647,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="124" t="s">
+      <c r="T15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="124">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="127">
+      <c r="X15" s="103">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="106">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5669,9 +5669,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5715,17 +5715,17 @@
         <v>13</v>
       </c>
       <c r="R16" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="125"/>
+        <v>88</v>
+      </c>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="127"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5735,9 +5735,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5786,24 +5786,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="125"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="104"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="124">
+      <c r="X17" s="103">
         <f>Z15+Z17</f>
         <v>71</v>
       </c>
-      <c r="Y17" s="127"/>
+      <c r="Y17" s="106"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="26" t="s">
         <v>88</v>
       </c>
@@ -5844,29 +5844,29 @@
         <v>88</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="R18" s="26" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="126"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="105"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="127"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="106"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="118">
+      <c r="A19" s="112">
         <v>3</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5917,27 +5917,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="124" t="s">
+      <c r="T19" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="124">
-        <v>20</v>
-      </c>
-      <c r="Y19" s="127">
+      <c r="X19" s="103">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="106">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5981,26 +5981,26 @@
         <v>13</v>
       </c>
       <c r="R20" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="125"/>
+        <v>88</v>
+      </c>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="127"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="106"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6049,24 +6049,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="125"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="104"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="124">
+      <c r="X21" s="103">
         <f>Z20+Z22</f>
         <v>71</v>
       </c>
-      <c r="Y21" s="127"/>
+      <c r="Y21" s="106"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="26" t="s">
         <v>88</v>
       </c>
@@ -6107,33 +6107,33 @@
         <v>88</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="126"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="105"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="127"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="106"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118">
+      <c r="A23" s="112">
         <v>4</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6184,27 +6184,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="124" t="s">
+      <c r="T23" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="124">
+      <c r="X23" s="103">
         <v>20</v>
       </c>
-      <c r="Y23" s="127">
+      <c r="Y23" s="106">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6253,21 +6253,21 @@
       <c r="S24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="125"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="127"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6316,24 +6316,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="125"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="104"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="124">
+      <c r="X25" s="103">
         <f>Z24+Z26</f>
         <v>159</v>
       </c>
-      <c r="Y25" s="127"/>
+      <c r="Y25" s="106"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="26" t="s">
         <v>13</v>
       </c>
@@ -6372,29 +6372,23 @@
       </c>
       <c r="P26" s="26">
         <v>8</v>
-      </c>
-      <c r="Q26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R26" s="26" t="s">
-        <v>13</v>
       </c>
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="126"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="105"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="127"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="106"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118">
+      <c r="A27" s="112">
         <v>5</v>
       </c>
       <c r="B27" s="130" t="s">
@@ -6451,20 +6445,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="124" t="s">
+      <c r="T27" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="124">
+      <c r="X27" s="103">
         <v>20</v>
       </c>
-      <c r="Y27" s="127">
+      <c r="Y27" s="106">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6472,7 +6466,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="130"/>
       <c r="C28" s="131"/>
       <c r="D28" s="26">
@@ -6523,12 +6517,12 @@
       <c r="S28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="125"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="104"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="106"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>71</v>
@@ -6539,7 +6533,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="118"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="130"/>
       <c r="C29" s="131"/>
       <c r="D29" s="27">
@@ -6590,18 +6584,18 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="125"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="104"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="124">
+      <c r="X29" s="103">
         <f>Z28+Z30</f>
         <v>159</v>
       </c>
-      <c r="Y29" s="127"/>
+      <c r="Y29" s="106"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="130"/>
       <c r="C30" s="131"/>
       <c r="D30" s="26" t="s">
@@ -6652,25 +6646,25 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="126"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="105"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="127"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="106"/>
       <c r="Z30" s="2">
         <f>SUM(D30:S30)</f>
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="118">
+      <c r="A31" s="112">
         <v>6</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6721,27 +6715,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="124" t="s">
+      <c r="T31" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="124">
+      <c r="X31" s="103">
         <v>20</v>
       </c>
-      <c r="Y31" s="127">
+      <c r="Y31" s="106">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="118"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6790,12 +6784,12 @@
       <c r="S32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="125"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="104"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="127"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="106"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>71</v>
@@ -6806,9 +6800,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6857,20 +6851,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="125"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="104"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="124">
+      <c r="X33" s="103">
         <f>Z32+Z34</f>
         <v>159</v>
       </c>
-      <c r="Y33" s="127"/>
+      <c r="Y33" s="106"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="26" t="s">
         <v>13</v>
       </c>
@@ -6919,12 +6913,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="126"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="105"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="127"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="106"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>88</v>
@@ -6935,7 +6929,7 @@
       <c r="C35" s="33"/>
       <c r="X35" s="74">
         <f>X33+X29+X25+X21+X17+X13</f>
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="Y35" s="34">
         <f>Y11+Y15+Y19+Y23+Y27+Y31</f>
@@ -6943,10 +6937,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="33">
         <v>44501</v>
       </c>
@@ -7012,15 +7006,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -7037,49 +7065,15 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7247,63 +7241,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
@@ -7333,90 +7327,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="132">
+      <c r="A11" s="135">
         <v>1</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7467,22 +7461,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="124">
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="103">
         <v>20</v>
       </c>
-      <c r="Z11" s="138">
+      <c r="Z11" s="132">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7531,18 +7525,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="133"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7591,20 +7585,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="124">
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="103">
         <v>159</v>
       </c>
-      <c r="Z13" s="139"/>
+      <c r="Z13" s="133"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -7653,22 +7647,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="134"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132">
-        <v>2</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121" t="s">
+      <c r="A15" s="135">
+        <v>2</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="114" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -7719,22 +7713,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="124">
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="103">
         <v>20</v>
       </c>
-      <c r="Z15" s="138">
+      <c r="Z15" s="132">
         <v>6060</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="133"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="120"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -7783,18 +7777,18 @@
       <c r="T16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="133"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="120"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -7843,20 +7837,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="136"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="136"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="124">
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="103">
         <v>79.5</v>
       </c>
-      <c r="Z17" s="139"/>
+      <c r="Z17" s="133"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="134"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="120"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
@@ -7905,12 +7899,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="134"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -7941,10 +7935,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8008,13 +8002,19 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -8031,19 +8031,13 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8057,7 +8051,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+      <selection activeCell="G14" sqref="G14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8072,12 +8066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8222,147 +8216,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="str">
+      <c r="A8" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="132">
+      <c r="B11" s="135">
         <v>1</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="141" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8413,19 +8407,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="124">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="103">
         <v>20</v>
       </c>
-      <c r="Y11" s="141">
+      <c r="Y11" s="144">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8434,10 +8428,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="149"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8486,17 +8480,17 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="142"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="145"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="149"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="142"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8545,20 +8539,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="124">
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="103">
         <f>Z11+Z14</f>
         <v>159</v>
       </c>
-      <c r="Y13" s="142"/>
+      <c r="Y13" s="145"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="150"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -8607,11 +8601,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="143"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="146"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>88</v>
@@ -8645,10 +8639,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="144"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -8727,12 +8721,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8743,14 +8739,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8782,11 +8776,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8936,145 +8930,145 @@
       <c r="Z6" s="99"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="103" t="s">
+      <c r="Y9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="114" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -9125,28 +9119,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="124" t="s">
+      <c r="T11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="151"/>
-      <c r="X11" s="124">
+      <c r="X11" s="103">
         <v>20</v>
       </c>
-      <c r="Y11" s="127">
+      <c r="Y11" s="106">
         <v>6000</v>
       </c>
       <c r="Z11" s="101"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -9195,21 +9189,21 @@
       <c r="S12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="125"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="152"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
       <c r="Z12" s="101">
         <f>SUM(D12:S12)</f>
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -9258,20 +9252,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="125"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="104"/>
       <c r="W13" s="152"/>
-      <c r="X13" s="124">
+      <c r="X13" s="103">
         <f>Z12+Z14</f>
         <v>40</v>
       </c>
-      <c r="Y13" s="127"/>
+      <c r="Y13" s="106"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="26" t="s">
         <v>13</v>
       </c>
@@ -9320,25 +9314,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="126"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="153"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="127"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106"/>
       <c r="Z14" s="100">
         <f>SUM(D14:S14)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118">
-        <v>2</v>
-      </c>
-      <c r="B15" s="119" t="s">
+      <c r="A15" s="112">
+        <v>2</v>
+      </c>
+      <c r="B15" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="114" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9389,28 +9383,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="124" t="s">
+      <c r="T15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="151"/>
-      <c r="X15" s="124">
+      <c r="X15" s="103">
         <v>20</v>
       </c>
-      <c r="Y15" s="127">
+      <c r="Y15" s="106">
         <v>6000</v>
       </c>
       <c r="Z15" s="101"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9459,21 +9453,21 @@
       <c r="S16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="125"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="152"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="127"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="101">
         <f>SUM(D16:S16)</f>
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9522,20 +9516,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="125"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="104"/>
       <c r="W17" s="152"/>
-      <c r="X17" s="124">
+      <c r="X17" s="103">
         <f>Z16+Z18</f>
         <v>159</v>
       </c>
-      <c r="Y17" s="127"/>
+      <c r="Y17" s="106"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
@@ -9584,25 +9578,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="126"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="105"/>
       <c r="W18" s="153"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="127"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="106"/>
       <c r="Z18" s="100">
         <f>SUM(D18:S18)</f>
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="132">
+      <c r="A19" s="135">
         <v>3</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="141" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="25">
@@ -9653,28 +9647,28 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="124" t="s">
+      <c r="T19" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="103" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="151"/>
-      <c r="X19" s="124">
+      <c r="X19" s="103">
         <v>20</v>
       </c>
-      <c r="Y19" s="141">
+      <c r="Y19" s="144">
         <v>6000</v>
       </c>
       <c r="Z19" s="101"/>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="133"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="149"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9723,21 +9717,21 @@
       <c r="S20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="125"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="104"/>
       <c r="W20" s="152"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="142"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="145"/>
       <c r="Z20" s="101">
         <f>SUM(D20:S20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9786,20 +9780,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="125"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="104"/>
       <c r="W21" s="152"/>
-      <c r="X21" s="124">
+      <c r="X21" s="103">
         <f>Z20+Z22</f>
         <v>4</v>
       </c>
-      <c r="Y21" s="142"/>
+      <c r="Y21" s="145"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="134"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="150"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="26" t="s">
         <v>13</v>
       </c>
@@ -9848,12 +9842,12 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="126"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="105"/>
       <c r="W22" s="153"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="143"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="146"/>
       <c r="Z22" s="100">
         <f>SUM(D22:S22)</f>
         <v>0</v>
@@ -9963,31 +9957,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="V19:V22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -10001,11 +9975,31 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="W19:W22"/>
-    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10034,51 +10028,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
       <c r="AA1" s="99"/>
       <c r="AB1" s="99"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
       <c r="AA2" s="99"/>
       <c r="AB2" s="99"/>
     </row>
@@ -10198,147 +10192,147 @@
       <c r="AB6" s="99"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
+      <c r="A7" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="str">
+      <c r="A8" s="120" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="109" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10389,20 +10383,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>20</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="106">
         <v>6060</v>
       </c>
       <c r="AA11" s="100">
@@ -10411,10 +10405,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10463,18 +10457,18 @@
       <c r="T12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="127"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="106"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10523,24 +10517,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>40</v>
       </c>
-      <c r="Z13" s="127"/>
+      <c r="Z13" s="106"/>
       <c r="AB13" s="100">
         <f>AA11+AA14</f>
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>13</v>
       </c>
@@ -10589,12 +10583,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="106"/>
       <c r="AA14" s="100">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -10679,10 +10673,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:28" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="128"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="154">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -10699,14 +10693,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10722,11 +10713,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10739,7 +10733,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D18" sqref="D18:R18"/>
     </sheetView>
   </sheetViews>
@@ -10760,11 +10754,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10854,142 +10848,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="A5" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="str">
+      <c r="A6" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="117" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="117" t="s">
+      <c r="U7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="117" t="s">
+      <c r="V7" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="117" t="s">
+      <c r="W7" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="117" t="s">
+      <c r="X7" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="103" t="s">
+      <c r="Y7" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="103"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="115"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118">
+      <c r="A9" s="112">
         <v>1</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="141" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -11040,29 +11034,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="124">
+      <c r="T9" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="103">
         <v>20</v>
       </c>
-      <c r="Y9" s="127">
+      <c r="Y9" s="106">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="149"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -11111,21 +11105,21 @@
       <c r="S10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="127"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="106"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="149"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -11174,20 +11168,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="124">
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="103">
         <f>Z10+Z12</f>
         <v>71</v>
       </c>
-      <c r="Y11" s="127"/>
+      <c r="Y11" s="106"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="150"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="26" t="s">
         <v>88</v>
       </c>
@@ -11236,25 +11230,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118">
-        <v>2</v>
-      </c>
-      <c r="B13" s="119" t="s">
+      <c r="A13" s="112">
+        <v>2</v>
+      </c>
+      <c r="B13" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="120" t="str">
+      <c r="C13" s="114" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -11306,22 +11300,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="124">
+      <c r="T13" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="103">
         <v>20</v>
       </c>
-      <c r="Y13" s="127">
+      <c r="Y13" s="106">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -11333,9 +11327,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11384,12 +11378,12 @@
       <c r="S14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="125"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="127"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>71</v>
@@ -11400,9 +11394,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11451,20 +11445,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="124">
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="103">
         <f>Z14+Z16</f>
         <v>71</v>
       </c>
-      <c r="Y15" s="127"/>
+      <c r="Y15" s="106"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="26" t="s">
         <v>88</v>
       </c>
@@ -11513,12 +11507,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="127"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>0</v>
@@ -11529,13 +11523,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="161">
+      <c r="A17" s="165">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="158" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11586,29 +11580,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="155">
+      <c r="T17" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="162" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="159">
         <v>20</v>
       </c>
-      <c r="Y17" s="127">
+      <c r="Y17" s="106">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="26" t="s">
         <v>88</v>
       </c>
@@ -11657,21 +11651,21 @@
       <c r="S18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T18" s="122"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="127"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="106"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11720,20 +11714,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="122"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="124">
+      <c r="T19" s="110"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="103">
         <f>Z18+Z20</f>
         <v>44</v>
       </c>
-      <c r="Y19" s="127"/>
+      <c r="Y19" s="106"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="158"/>
       <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
@@ -11782,25 +11776,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="123"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="127"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="106"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="132">
+      <c r="A21" s="135">
         <v>4</v>
       </c>
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="158" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11851,29 +11845,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="124">
+      <c r="T21" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="103">
         <v>20</v>
       </c>
-      <c r="Y21" s="127">
+      <c r="Y21" s="106">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="163"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11922,21 +11916,21 @@
       <c r="S22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="127"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="106"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="133"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="163"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11985,20 +11979,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="124">
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="103">
         <f>Z22+Z24</f>
         <v>159</v>
       </c>
-      <c r="Y23" s="127"/>
+      <c r="Y23" s="106"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="134"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="163"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="26" t="s">
         <v>13</v>
       </c>
@@ -12047,25 +12041,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="127"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132">
+      <c r="A25" s="135">
         <v>4</v>
       </c>
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="163" t="s">
+      <c r="C25" s="158" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -12116,29 +12110,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="124">
+      <c r="T25" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="103">
         <v>20</v>
       </c>
-      <c r="Y25" s="127">
+      <c r="Y25" s="106">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="133"/>
-      <c r="B26" s="165"/>
-      <c r="C26" s="163"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -12187,21 +12181,21 @@
       <c r="S26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="127"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="106"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="163"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -12250,20 +12244,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="124">
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="103">
         <f>Z26+Z28</f>
         <v>159</v>
       </c>
-      <c r="Y27" s="127"/>
+      <c r="Y27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="163"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="26" t="s">
         <v>13</v>
       </c>
@@ -12312,12 +12306,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="127"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="106"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>88</v>
@@ -12357,10 +12351,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -12521,54 +12515,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12585,6 +12531,54 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12618,11 +12612,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12736,141 +12730,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
     </row>
     <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="117" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="117" t="s">
+      <c r="V8" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="117" t="s">
+      <c r="W8" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="117" t="s">
+      <c r="X8" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="103" t="s">
+      <c r="Y8" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="103"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="115"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="118">
+      <c r="A10" s="112">
         <v>1</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="114" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12921,29 +12915,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="127">
+      <c r="T10" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="106">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12992,17 +12986,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="127"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="106"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -13051,19 +13045,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="127"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="106"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -13112,12 +13106,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="127"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="106"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="68"/>
@@ -13132,10 +13126,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13202,6 +13196,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -13216,16 +13220,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13390,63 +13384,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
+      <c r="A6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="str">
+      <c r="A7" s="119" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЖОВТЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
@@ -13476,94 +13470,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="117" t="s">
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="117" t="s">
+      <c r="V9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="117" t="s">
+      <c r="W9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="117" t="s">
+      <c r="X9" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="Y9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="115" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="103"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="115"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="112">
         <v>1</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="114" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13614,17 +13608,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="124" t="s">
+      <c r="U11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="103" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="151"/>
-      <c r="Y11" s="124">
+      <c r="Y11" s="103">
         <v>20</v>
       </c>
       <c r="Z11" s="167">
@@ -13632,10 +13626,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13684,18 +13678,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="125"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="104"/>
       <c r="X12" s="152"/>
-      <c r="Y12" s="126"/>
+      <c r="Y12" s="105"/>
       <c r="Z12" s="167"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13744,20 +13738,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="125"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="152"/>
-      <c r="Y13" s="124">
+      <c r="Y13" s="103">
         <v>160</v>
       </c>
       <c r="Z13" s="167"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13806,18 +13800,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="105"/>
       <c r="X14" s="153"/>
-      <c r="Y14" s="126"/>
+      <c r="Y14" s="105"/>
       <c r="Z14" s="167"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44501</v>
@@ -13881,6 +13875,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13894,18 +13900,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
